--- a/exekuce/update22/orp.xlsx
+++ b/exekuce/update22/orp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>pe</t>
   </si>
@@ -68,6 +68,24 @@
   </si>
   <si>
     <t>p5</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>podil_oe</t>
+  </si>
+  <si>
+    <t>podil_oe_rank</t>
+  </si>
+  <si>
+    <t>pvo_rank</t>
+  </si>
+  <si>
+    <t>podil_vce</t>
+  </si>
+  <si>
+    <t>vce_rank</t>
   </si>
   <si>
     <t>kod_orp</t>
@@ -428,15 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S207"/>
+  <dimension ref="A1:Y207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -492,8 +510,26 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -551,8 +587,26 @@
       <c r="S2">
         <v>493</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>1071934</v>
+      </c>
+      <c r="U2">
+        <v>0.06922534409767765</v>
+      </c>
+      <c r="V2">
+        <v>73</v>
+      </c>
+      <c r="W2">
+        <v>11</v>
+      </c>
+      <c r="X2">
+        <v>0.7201131999191429</v>
+      </c>
+      <c r="Y2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>2101</v>
       </c>
@@ -610,8 +664,26 @@
       <c r="S3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>50488</v>
+      </c>
+      <c r="U3">
+        <v>0.04953652353034384</v>
+      </c>
+      <c r="V3">
+        <v>150</v>
+      </c>
+      <c r="W3">
+        <v>78</v>
+      </c>
+      <c r="X3">
+        <v>0.759296281487405</v>
+      </c>
+      <c r="Y3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>2102</v>
       </c>
@@ -669,8 +741,26 @@
       <c r="S4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>53814</v>
+      </c>
+      <c r="U4">
+        <v>0.05433530308098265</v>
+      </c>
+      <c r="V4">
+        <v>122</v>
+      </c>
+      <c r="W4">
+        <v>86</v>
+      </c>
+      <c r="X4">
+        <v>0.7773597811217511</v>
+      </c>
+      <c r="Y4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>2103</v>
       </c>
@@ -728,8 +818,26 @@
       <c r="S5">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>89945</v>
+      </c>
+      <c r="U5">
+        <v>0.04491633776196564</v>
+      </c>
+      <c r="V5">
+        <v>165</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>0.7084158415841584</v>
+      </c>
+      <c r="Y5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>2104</v>
       </c>
@@ -787,8 +895,26 @@
       <c r="S6">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>21418</v>
+      </c>
+      <c r="U6">
+        <v>0.06653282285927724</v>
+      </c>
+      <c r="V6">
+        <v>82</v>
+      </c>
+      <c r="W6">
+        <v>81</v>
+      </c>
+      <c r="X6">
+        <v>0.7810526315789473</v>
+      </c>
+      <c r="Y6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>2105</v>
       </c>
@@ -846,8 +972,26 @@
       <c r="S7">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>119423</v>
+      </c>
+      <c r="U7">
+        <v>0.04247925441497869</v>
+      </c>
+      <c r="V7">
+        <v>174</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <v>0.7120047309284447</v>
+      </c>
+      <c r="Y7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>2106</v>
       </c>
@@ -905,8 +1049,26 @@
       <c r="S8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>15939</v>
+      </c>
+      <c r="U8">
+        <v>0.07189911537737624</v>
+      </c>
+      <c r="V8">
+        <v>67</v>
+      </c>
+      <c r="W8">
+        <v>143</v>
+      </c>
+      <c r="X8">
+        <v>0.7574171029668412</v>
+      </c>
+      <c r="Y8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>2107</v>
       </c>
@@ -964,8 +1126,26 @@
       <c r="S9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>19096</v>
+      </c>
+      <c r="U9">
+        <v>0.04969627147046502</v>
+      </c>
+      <c r="V9">
+        <v>146</v>
+      </c>
+      <c r="W9">
+        <v>15</v>
+      </c>
+      <c r="X9">
+        <v>0.7471022128556375</v>
+      </c>
+      <c r="Y9">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>2108</v>
       </c>
@@ -1023,8 +1203,26 @@
       <c r="S10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>25363</v>
+      </c>
+      <c r="U10">
+        <v>0.04956038323542167</v>
+      </c>
+      <c r="V10">
+        <v>148</v>
+      </c>
+      <c r="W10">
+        <v>94</v>
+      </c>
+      <c r="X10">
+        <v>0.745425616547335</v>
+      </c>
+      <c r="Y10">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>2109</v>
       </c>
@@ -1082,8 +1280,26 @@
       <c r="S11">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>103291</v>
+      </c>
+      <c r="U11">
+        <v>0.08586420888557571</v>
+      </c>
+      <c r="V11">
+        <v>45</v>
+      </c>
+      <c r="W11">
+        <v>130</v>
+      </c>
+      <c r="X11">
+        <v>0.7755102040816326</v>
+      </c>
+      <c r="Y11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1">
         <v>2110</v>
       </c>
@@ -1141,8 +1357,26 @@
       <c r="S12">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>70013</v>
+      </c>
+      <c r="U12">
+        <v>0.07271506720180537</v>
+      </c>
+      <c r="V12">
+        <v>64</v>
+      </c>
+      <c r="W12">
+        <v>104</v>
+      </c>
+      <c r="X12">
+        <v>0.762914947947358</v>
+      </c>
+      <c r="Y12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1">
         <v>2111</v>
       </c>
@@ -1200,8 +1434,26 @@
       <c r="S13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>26904</v>
+      </c>
+      <c r="U13">
+        <v>0.06341064525721082</v>
+      </c>
+      <c r="V13">
+        <v>97</v>
+      </c>
+      <c r="W13">
+        <v>61</v>
+      </c>
+      <c r="X13">
+        <v>0.7543962485345839</v>
+      </c>
+      <c r="Y13">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1">
         <v>2112</v>
       </c>
@@ -1259,8 +1511,26 @@
       <c r="S14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>42337</v>
+      </c>
+      <c r="U14">
+        <v>0.06781302406878144</v>
+      </c>
+      <c r="V14">
+        <v>78</v>
+      </c>
+      <c r="W14">
+        <v>88</v>
+      </c>
+      <c r="X14">
+        <v>0.7554858934169278</v>
+      </c>
+      <c r="Y14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1">
         <v>2113</v>
       </c>
@@ -1318,8 +1588,26 @@
       <c r="S15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>23565</v>
+      </c>
+      <c r="U15">
+        <v>0.05431784426055591</v>
+      </c>
+      <c r="V15">
+        <v>123</v>
+      </c>
+      <c r="W15">
+        <v>72</v>
+      </c>
+      <c r="X15">
+        <v>0.8109375</v>
+      </c>
+      <c r="Y15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1">
         <v>2114</v>
       </c>
@@ -1377,8 +1665,26 @@
       <c r="S16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>37115</v>
+      </c>
+      <c r="U16">
+        <v>0.07730028290448605</v>
+      </c>
+      <c r="V16">
+        <v>54</v>
+      </c>
+      <c r="W16">
+        <v>90</v>
+      </c>
+      <c r="X16">
+        <v>0.7800627396305333</v>
+      </c>
+      <c r="Y16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1">
         <v>2115</v>
       </c>
@@ -1436,8 +1742,26 @@
       <c r="S17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>91466</v>
+      </c>
+      <c r="U17">
+        <v>0.06939190518881333</v>
+      </c>
+      <c r="V17">
+        <v>72</v>
+      </c>
+      <c r="W17">
+        <v>168</v>
+      </c>
+      <c r="X17">
+        <v>0.670395462423192</v>
+      </c>
+      <c r="Y17">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1">
         <v>2116</v>
       </c>
@@ -1495,8 +1819,26 @@
       <c r="S18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>14764</v>
+      </c>
+      <c r="U18">
+        <v>0.04659983744242752</v>
+      </c>
+      <c r="V18">
+        <v>158</v>
+      </c>
+      <c r="W18">
+        <v>159</v>
+      </c>
+      <c r="X18">
+        <v>0.7311046511627907</v>
+      </c>
+      <c r="Y18">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1">
         <v>2117</v>
       </c>
@@ -1554,8 +1896,26 @@
       <c r="S19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>26449</v>
+      </c>
+      <c r="U19">
+        <v>0.07871753185375628</v>
+      </c>
+      <c r="V19">
+        <v>52</v>
+      </c>
+      <c r="W19">
+        <v>66</v>
+      </c>
+      <c r="X19">
+        <v>0.7905859750240154</v>
+      </c>
+      <c r="Y19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1">
         <v>2118</v>
       </c>
@@ -1613,8 +1973,26 @@
       <c r="S20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>33524</v>
+      </c>
+      <c r="U20">
+        <v>0.05876387065982579</v>
+      </c>
+      <c r="V20">
+        <v>106</v>
+      </c>
+      <c r="W20">
+        <v>101</v>
+      </c>
+      <c r="X20">
+        <v>0.7517766497461928</v>
+      </c>
+      <c r="Y20">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1">
         <v>2119</v>
       </c>
@@ -1672,8 +2050,26 @@
       <c r="S21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>26180</v>
+      </c>
+      <c r="U21">
+        <v>0.05741023682200153</v>
+      </c>
+      <c r="V21">
+        <v>111</v>
+      </c>
+      <c r="W21">
+        <v>33</v>
+      </c>
+      <c r="X21">
+        <v>0.7498336660013307</v>
+      </c>
+      <c r="Y21">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1">
         <v>2120</v>
       </c>
@@ -1731,8 +2127,26 @@
       <c r="S22">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>58545</v>
+      </c>
+      <c r="U22">
+        <v>0.05810914681014604</v>
+      </c>
+      <c r="V22">
+        <v>109</v>
+      </c>
+      <c r="W22">
+        <v>36</v>
+      </c>
+      <c r="X22">
+        <v>0.828042328042328</v>
+      </c>
+      <c r="Y22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1">
         <v>2121</v>
       </c>
@@ -1790,8 +2204,26 @@
       <c r="S23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>46102</v>
+      </c>
+      <c r="U23">
+        <v>0.07073445837490781</v>
+      </c>
+      <c r="V23">
+        <v>69</v>
+      </c>
+      <c r="W23">
+        <v>87</v>
+      </c>
+      <c r="X23">
+        <v>0.7712358172339773</v>
+      </c>
+      <c r="Y23">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1">
         <v>2122</v>
       </c>
@@ -1849,8 +2281,26 @@
       <c r="S24">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>58267</v>
+      </c>
+      <c r="U24">
+        <v>0.03863250210239072</v>
+      </c>
+      <c r="V24">
+        <v>189</v>
+      </c>
+      <c r="W24">
+        <v>20</v>
+      </c>
+      <c r="X24">
+        <v>0.7130164371390493</v>
+      </c>
+      <c r="Y24">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="1">
         <v>2123</v>
       </c>
@@ -1908,8 +2358,26 @@
       <c r="S25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25">
+        <v>18490</v>
+      </c>
+      <c r="U25">
+        <v>0.05127095727420227</v>
+      </c>
+      <c r="V25">
+        <v>137</v>
+      </c>
+      <c r="W25">
+        <v>48</v>
+      </c>
+      <c r="X25">
+        <v>0.7658227848101266</v>
+      </c>
+      <c r="Y25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="1">
         <v>2124</v>
       </c>
@@ -1967,8 +2435,26 @@
       <c r="S26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26">
+        <v>33730</v>
+      </c>
+      <c r="U26">
+        <v>0.08520604802846131</v>
+      </c>
+      <c r="V26">
+        <v>46</v>
+      </c>
+      <c r="W26">
+        <v>140</v>
+      </c>
+      <c r="X26">
+        <v>0.7947112038970077</v>
+      </c>
+      <c r="Y26">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="1">
         <v>2125</v>
       </c>
@@ -2026,8 +2512,26 @@
       <c r="S27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27">
+        <v>21681</v>
+      </c>
+      <c r="U27">
+        <v>0.04995157049951571</v>
+      </c>
+      <c r="V27">
+        <v>144</v>
+      </c>
+      <c r="W27">
+        <v>148</v>
+      </c>
+      <c r="X27">
+        <v>0.7737765466297323</v>
+      </c>
+      <c r="Y27">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="1">
         <v>2126</v>
       </c>
@@ -2085,8 +2589,26 @@
       <c r="S28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28">
+        <v>10394</v>
+      </c>
+      <c r="U28">
+        <v>0.04993265345391572</v>
+      </c>
+      <c r="V28">
+        <v>145</v>
+      </c>
+      <c r="W28">
+        <v>95</v>
+      </c>
+      <c r="X28">
+        <v>0.8053949903660886</v>
+      </c>
+      <c r="Y28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="1">
         <v>3101</v>
       </c>
@@ -2144,8 +2666,26 @@
       <c r="S29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29">
+        <v>11411</v>
+      </c>
+      <c r="U29">
+        <v>0.04960126194023311</v>
+      </c>
+      <c r="V29">
+        <v>147</v>
+      </c>
+      <c r="W29">
+        <v>138</v>
+      </c>
+      <c r="X29">
+        <v>0.7756183745583038</v>
+      </c>
+      <c r="Y29">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="1">
         <v>3102</v>
       </c>
@@ -2203,8 +2743,26 @@
       <c r="S30">
         <v>184</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30">
+        <v>135086</v>
+      </c>
+      <c r="U30">
+        <v>0.05939919754822853</v>
+      </c>
+      <c r="V30">
+        <v>104</v>
+      </c>
+      <c r="W30">
+        <v>77</v>
+      </c>
+      <c r="X30">
+        <v>0.7726819541375872</v>
+      </c>
+      <c r="Y30">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="1">
         <v>3103</v>
       </c>
@@ -2262,8 +2820,26 @@
       <c r="S31">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31">
+        <v>34010</v>
+      </c>
+      <c r="U31">
+        <v>0.0971184945604234</v>
+      </c>
+      <c r="V31">
+        <v>38</v>
+      </c>
+      <c r="W31">
+        <v>156</v>
+      </c>
+      <c r="X31">
+        <v>0.7826218589161369</v>
+      </c>
+      <c r="Y31">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="1">
         <v>3104</v>
       </c>
@@ -2321,8 +2897,26 @@
       <c r="S32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32">
+        <v>15690</v>
+      </c>
+      <c r="U32">
+        <v>0.05309114085404716</v>
+      </c>
+      <c r="V32">
+        <v>125</v>
+      </c>
+      <c r="W32">
+        <v>170</v>
+      </c>
+      <c r="X32">
+        <v>0.7454981992797118</v>
+      </c>
+      <c r="Y32">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="1">
         <v>3105</v>
       </c>
@@ -2380,8 +2974,26 @@
       <c r="S33">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33">
+        <v>39325</v>
+      </c>
+      <c r="U33">
+        <v>0.0638525111252384</v>
+      </c>
+      <c r="V33">
+        <v>95</v>
+      </c>
+      <c r="W33">
+        <v>19</v>
+      </c>
+      <c r="X33">
+        <v>0.7729988052568698</v>
+      </c>
+      <c r="Y33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="1">
         <v>3106</v>
       </c>
@@ -2439,8 +3051,26 @@
       <c r="S34">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34">
+        <v>16269</v>
+      </c>
+      <c r="U34">
+        <v>0.1092876021882107</v>
+      </c>
+      <c r="V34">
+        <v>28</v>
+      </c>
+      <c r="W34">
+        <v>169</v>
+      </c>
+      <c r="X34">
+        <v>0.7542182227221598</v>
+      </c>
+      <c r="Y34">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="1">
         <v>3107</v>
       </c>
@@ -2498,8 +3128,26 @@
       <c r="S35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35">
+        <v>15478</v>
+      </c>
+      <c r="U35">
+        <v>0.05091097040961365</v>
+      </c>
+      <c r="V35">
+        <v>139</v>
+      </c>
+      <c r="W35">
+        <v>96</v>
+      </c>
+      <c r="X35">
+        <v>0.7931472081218274</v>
+      </c>
+      <c r="Y35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="1">
         <v>3108</v>
       </c>
@@ -2557,8 +3205,26 @@
       <c r="S36">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36">
+        <v>44444</v>
+      </c>
+      <c r="U36">
+        <v>0.06041310413104131</v>
+      </c>
+      <c r="V36">
+        <v>102</v>
+      </c>
+      <c r="W36">
+        <v>24</v>
+      </c>
+      <c r="X36">
+        <v>0.8007448789571695</v>
+      </c>
+      <c r="Y36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="1">
         <v>3109</v>
       </c>
@@ -2616,8 +3282,26 @@
       <c r="S37">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37">
+        <v>27884</v>
+      </c>
+      <c r="U37">
+        <v>0.07473820111892125</v>
+      </c>
+      <c r="V37">
+        <v>58</v>
+      </c>
+      <c r="W37">
+        <v>162</v>
+      </c>
+      <c r="X37">
+        <v>0.7903071017274472</v>
+      </c>
+      <c r="Y37">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="1">
         <v>3110</v>
       </c>
@@ -2675,8 +3359,26 @@
       <c r="S38">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38">
+        <v>18506</v>
+      </c>
+      <c r="U38">
+        <v>0.05852156057494867</v>
+      </c>
+      <c r="V38">
+        <v>107</v>
+      </c>
+      <c r="W38">
+        <v>145</v>
+      </c>
+      <c r="X38">
+        <v>0.7811634349030471</v>
+      </c>
+      <c r="Y38">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="1">
         <v>3111</v>
       </c>
@@ -2734,8 +3436,26 @@
       <c r="S39">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39">
+        <v>37467</v>
+      </c>
+      <c r="U39">
+        <v>0.06749939947153495</v>
+      </c>
+      <c r="V39">
+        <v>80</v>
+      </c>
+      <c r="W39">
+        <v>125</v>
+      </c>
+      <c r="X39">
+        <v>0.7698695136417556</v>
+      </c>
+      <c r="Y39">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="1">
         <v>3112</v>
       </c>
@@ -2793,8 +3513,26 @@
       <c r="S40">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40">
+        <v>67043</v>
+      </c>
+      <c r="U40">
+        <v>0.06200498187730263</v>
+      </c>
+      <c r="V40">
+        <v>101</v>
+      </c>
+      <c r="W40">
+        <v>58</v>
+      </c>
+      <c r="X40">
+        <v>0.7806110175607409</v>
+      </c>
+      <c r="Y40">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="1">
         <v>3113</v>
       </c>
@@ -2852,8 +3590,26 @@
       <c r="S41">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41">
+        <v>15947</v>
+      </c>
+      <c r="U41">
+        <v>0.05468113124725654</v>
+      </c>
+      <c r="V41">
+        <v>118</v>
+      </c>
+      <c r="W41">
+        <v>137</v>
+      </c>
+      <c r="X41">
+        <v>0.7729357798165137</v>
+      </c>
+      <c r="Y41">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="1">
         <v>3114</v>
       </c>
@@ -2911,8 +3667,26 @@
       <c r="S42">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42">
+        <v>20809</v>
+      </c>
+      <c r="U42">
+        <v>0.06646162718054688</v>
+      </c>
+      <c r="V42">
+        <v>83</v>
+      </c>
+      <c r="W42">
+        <v>5</v>
+      </c>
+      <c r="X42">
+        <v>0.7700650759219089</v>
+      </c>
+      <c r="Y42">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="1">
         <v>3115</v>
       </c>
@@ -2967,8 +3741,29 @@
       <c r="R43">
         <v>195</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>11681</v>
+      </c>
+      <c r="U43">
+        <v>0.06882972348257854</v>
+      </c>
+      <c r="V43">
+        <v>74</v>
+      </c>
+      <c r="W43">
+        <v>144</v>
+      </c>
+      <c r="X43">
+        <v>0.777363184079602</v>
+      </c>
+      <c r="Y43">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="1">
         <v>3116</v>
       </c>
@@ -3026,8 +3821,26 @@
       <c r="S44">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44">
+        <v>14476</v>
+      </c>
+      <c r="U44">
+        <v>0.07833655705996131</v>
+      </c>
+      <c r="V44">
+        <v>53</v>
+      </c>
+      <c r="W44">
+        <v>103</v>
+      </c>
+      <c r="X44">
+        <v>0.7724867724867724</v>
+      </c>
+      <c r="Y44">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="1">
         <v>3117</v>
       </c>
@@ -3085,8 +3898,26 @@
       <c r="S45">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45">
+        <v>9952</v>
+      </c>
+      <c r="U45">
+        <v>0.06481109324758842</v>
+      </c>
+      <c r="V45">
+        <v>90</v>
+      </c>
+      <c r="W45">
+        <v>115</v>
+      </c>
+      <c r="X45">
+        <v>0.7302325581395349</v>
+      </c>
+      <c r="Y45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="1">
         <v>3201</v>
       </c>
@@ -3144,8 +3975,26 @@
       <c r="S46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46">
+        <v>10223</v>
+      </c>
+      <c r="U46">
+        <v>0.05272424924190551</v>
+      </c>
+      <c r="V46">
+        <v>127</v>
+      </c>
+      <c r="W46">
+        <v>30</v>
+      </c>
+      <c r="X46">
+        <v>0.7402597402597403</v>
+      </c>
+      <c r="Y46">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" s="1">
         <v>3202</v>
       </c>
@@ -3203,8 +4052,26 @@
       <c r="S47">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47">
+        <v>33513</v>
+      </c>
+      <c r="U47">
+        <v>0.06836153134604482</v>
+      </c>
+      <c r="V47">
+        <v>76</v>
+      </c>
+      <c r="W47">
+        <v>122</v>
+      </c>
+      <c r="X47">
+        <v>0.7429070274989088</v>
+      </c>
+      <c r="Y47">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="1">
         <v>3203</v>
       </c>
@@ -3262,8 +4129,26 @@
       <c r="S48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48">
+        <v>9809</v>
+      </c>
+      <c r="U48">
+        <v>0.04954633499847079</v>
+      </c>
+      <c r="V48">
+        <v>149</v>
+      </c>
+      <c r="W48">
+        <v>91</v>
+      </c>
+      <c r="X48">
+        <v>0.7448559670781894</v>
+      </c>
+      <c r="Y48">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" s="1">
         <v>3204</v>
       </c>
@@ -3321,8 +4206,26 @@
       <c r="S49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49">
+        <v>12236</v>
+      </c>
+      <c r="U49">
+        <v>0.07191892775416803</v>
+      </c>
+      <c r="V49">
+        <v>66</v>
+      </c>
+      <c r="W49">
+        <v>139</v>
+      </c>
+      <c r="X49">
+        <v>0.8227272727272728</v>
+      </c>
+      <c r="Y49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="1">
         <v>3205</v>
       </c>
@@ -3380,8 +4283,26 @@
       <c r="S50">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50">
+        <v>42265</v>
+      </c>
+      <c r="U50">
+        <v>0.05555424109783509</v>
+      </c>
+      <c r="V50">
+        <v>117</v>
+      </c>
+      <c r="W50">
+        <v>35</v>
+      </c>
+      <c r="X50">
+        <v>0.7227427597955707</v>
+      </c>
+      <c r="Y50">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="1">
         <v>3206</v>
       </c>
@@ -3439,8 +4360,26 @@
       <c r="S51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51">
+        <v>19193</v>
+      </c>
+      <c r="U51">
+        <v>0.06215807846610744</v>
+      </c>
+      <c r="V51">
+        <v>100</v>
+      </c>
+      <c r="W51">
+        <v>111</v>
+      </c>
+      <c r="X51">
+        <v>0.7451802179379715</v>
+      </c>
+      <c r="Y51">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" s="1">
         <v>3207</v>
       </c>
@@ -3498,8 +4437,26 @@
       <c r="S52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52">
+        <v>9447</v>
+      </c>
+      <c r="U52">
+        <v>0.0675346670900815</v>
+      </c>
+      <c r="V52">
+        <v>79</v>
+      </c>
+      <c r="W52">
+        <v>31</v>
+      </c>
+      <c r="X52">
+        <v>0.7617554858934169</v>
+      </c>
+      <c r="Y52">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" s="1">
         <v>3208</v>
       </c>
@@ -3557,8 +4514,26 @@
       <c r="S53">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53">
+        <v>48251</v>
+      </c>
+      <c r="U53">
+        <v>0.05738741165986197</v>
+      </c>
+      <c r="V53">
+        <v>112</v>
+      </c>
+      <c r="W53">
+        <v>102</v>
+      </c>
+      <c r="X53">
+        <v>0.7591188154568437</v>
+      </c>
+      <c r="Y53">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" s="1">
         <v>3209</v>
       </c>
@@ -3616,8 +4591,26 @@
       <c r="S54">
         <v>68</v>
       </c>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54">
+        <v>159071</v>
+      </c>
+      <c r="U54">
+        <v>0.09273217619804992</v>
+      </c>
+      <c r="V54">
+        <v>41</v>
+      </c>
+      <c r="W54">
+        <v>160</v>
+      </c>
+      <c r="X54">
+        <v>0.6762253406548708</v>
+      </c>
+      <c r="Y54">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" s="1">
         <v>3210</v>
       </c>
@@ -3675,8 +4668,26 @@
       <c r="S55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55">
+        <v>18784</v>
+      </c>
+      <c r="U55">
+        <v>0.04865843270868825</v>
+      </c>
+      <c r="V55">
+        <v>153</v>
+      </c>
+      <c r="W55">
+        <v>21</v>
+      </c>
+      <c r="X55">
+        <v>0.7472647702407003</v>
+      </c>
+      <c r="Y55">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" s="1">
         <v>3211</v>
       </c>
@@ -3734,8 +4745,26 @@
       <c r="S56">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56">
+        <v>41075</v>
+      </c>
+      <c r="U56">
+        <v>0.06544126597687158</v>
+      </c>
+      <c r="V56">
+        <v>86</v>
+      </c>
+      <c r="W56">
+        <v>149</v>
+      </c>
+      <c r="X56">
+        <v>0.7552083333333334</v>
+      </c>
+      <c r="Y56">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" s="1">
         <v>3212</v>
       </c>
@@ -3793,8 +4822,26 @@
       <c r="S57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57">
+        <v>19425</v>
+      </c>
+      <c r="U57">
+        <v>0.05832689832689833</v>
+      </c>
+      <c r="V57">
+        <v>108</v>
+      </c>
+      <c r="W57">
+        <v>183</v>
+      </c>
+      <c r="X57">
+        <v>0.794351279788173</v>
+      </c>
+      <c r="Y57">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" s="1">
         <v>3213</v>
       </c>
@@ -3852,8 +4899,26 @@
       <c r="S58">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="T58">
+        <v>14111</v>
+      </c>
+      <c r="U58">
+        <v>0.1029693147190135</v>
+      </c>
+      <c r="V58">
+        <v>33</v>
+      </c>
+      <c r="W58">
+        <v>50</v>
+      </c>
+      <c r="X58">
+        <v>0.7260839642119752</v>
+      </c>
+      <c r="Y58">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" s="1">
         <v>3214</v>
       </c>
@@ -3911,8 +4976,26 @@
       <c r="S59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="T59">
+        <v>20073</v>
+      </c>
+      <c r="U59">
+        <v>0.04433816569521248</v>
+      </c>
+      <c r="V59">
+        <v>169</v>
+      </c>
+      <c r="W59">
+        <v>71</v>
+      </c>
+      <c r="X59">
+        <v>0.7966292134831461</v>
+      </c>
+      <c r="Y59">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" s="1">
         <v>3215</v>
       </c>
@@ -3970,8 +5053,26 @@
       <c r="S60">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="T60">
+        <v>30518</v>
+      </c>
+      <c r="U60">
+        <v>0.1016449308604758</v>
+      </c>
+      <c r="V60">
+        <v>35</v>
+      </c>
+      <c r="W60">
+        <v>126</v>
+      </c>
+      <c r="X60">
+        <v>0.7208252740167633</v>
+      </c>
+      <c r="Y60">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" s="1">
         <v>4101</v>
       </c>
@@ -4029,8 +5130,26 @@
       <c r="S61">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61">
+        <v>14203</v>
+      </c>
+      <c r="U61">
+        <v>0.1847497007674435</v>
+      </c>
+      <c r="V61">
+        <v>3</v>
+      </c>
+      <c r="W61">
+        <v>163</v>
+      </c>
+      <c r="X61">
+        <v>0.743140243902439</v>
+      </c>
+      <c r="Y61">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" s="1">
         <v>4102</v>
       </c>
@@ -4088,8 +5207,26 @@
       <c r="S62">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="T62">
+        <v>40611</v>
+      </c>
+      <c r="U62">
+        <v>0.1372288296274408</v>
+      </c>
+      <c r="V62">
+        <v>11</v>
+      </c>
+      <c r="W62">
+        <v>198</v>
+      </c>
+      <c r="X62">
+        <v>0.7491476762964292</v>
+      </c>
+      <c r="Y62">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" s="1">
         <v>4103</v>
       </c>
@@ -4147,8 +5284,26 @@
       <c r="S63">
         <v>23</v>
       </c>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="T63">
+        <v>71551</v>
+      </c>
+      <c r="U63">
+        <v>0.105337451607944</v>
+      </c>
+      <c r="V63">
+        <v>32</v>
+      </c>
+      <c r="W63">
+        <v>166</v>
+      </c>
+      <c r="X63">
+        <v>0.7763035690593074</v>
+      </c>
+      <c r="Y63">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" s="1">
         <v>4104</v>
       </c>
@@ -4206,8 +5361,26 @@
       <c r="S64">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:19">
+      <c r="T64">
+        <v>10722</v>
+      </c>
+      <c r="U64">
+        <v>0.1728222346577131</v>
+      </c>
+      <c r="V64">
+        <v>4</v>
+      </c>
+      <c r="W64">
+        <v>200</v>
+      </c>
+      <c r="X64">
+        <v>0.8202914193200216</v>
+      </c>
+      <c r="Y64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" s="1">
         <v>4105</v>
       </c>
@@ -4265,8 +5438,26 @@
       <c r="S65">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="T65">
+        <v>19885</v>
+      </c>
+      <c r="U65">
+        <v>0.1133517726929847</v>
+      </c>
+      <c r="V65">
+        <v>25</v>
+      </c>
+      <c r="W65">
+        <v>98</v>
+      </c>
+      <c r="X65">
+        <v>0.7595385980479148</v>
+      </c>
+      <c r="Y65">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" s="1">
         <v>4106</v>
       </c>
@@ -4324,8 +5515,26 @@
       <c r="S66">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:19">
+      <c r="T66">
+        <v>22459</v>
+      </c>
+      <c r="U66">
+        <v>0.1188832984549624</v>
+      </c>
+      <c r="V66">
+        <v>22</v>
+      </c>
+      <c r="W66">
+        <v>152</v>
+      </c>
+      <c r="X66">
+        <v>0.753183520599251</v>
+      </c>
+      <c r="Y66">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" s="1">
         <v>4107</v>
       </c>
@@ -4383,8 +5592,26 @@
       <c r="S67">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="T67">
+        <v>61325</v>
+      </c>
+      <c r="U67">
+        <v>0.1456502242152466</v>
+      </c>
+      <c r="V67">
+        <v>9</v>
+      </c>
+      <c r="W67">
+        <v>199</v>
+      </c>
+      <c r="X67">
+        <v>0.8075459023734886</v>
+      </c>
+      <c r="Y67">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" s="1">
         <v>4201</v>
       </c>
@@ -4442,8 +5669,26 @@
       <c r="S68">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:19">
+      <c r="T68">
+        <v>16324</v>
+      </c>
+      <c r="U68">
+        <v>0.200869884832149</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>206</v>
+      </c>
+      <c r="X68">
+        <v>0.8243366880146387</v>
+      </c>
+      <c r="Y68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" s="1">
         <v>4202</v>
       </c>
@@ -4501,8 +5746,26 @@
       <c r="S69">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:19">
+      <c r="T69">
+        <v>63109</v>
+      </c>
+      <c r="U69">
+        <v>0.1352580456036382</v>
+      </c>
+      <c r="V69">
+        <v>13</v>
+      </c>
+      <c r="W69">
+        <v>188</v>
+      </c>
+      <c r="X69">
+        <v>0.8034208059981256</v>
+      </c>
+      <c r="Y69">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" s="1">
         <v>4203</v>
       </c>
@@ -4560,8 +5823,26 @@
       <c r="S70">
         <v>38</v>
       </c>
-    </row>
-    <row r="71" spans="1:19">
+      <c r="T70">
+        <v>66625</v>
+      </c>
+      <c r="U70">
+        <v>0.1631369606003752</v>
+      </c>
+      <c r="V70">
+        <v>6</v>
+      </c>
+      <c r="W70">
+        <v>136</v>
+      </c>
+      <c r="X70">
+        <v>0.8227067807525992</v>
+      </c>
+      <c r="Y70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" s="1">
         <v>4204</v>
       </c>
@@ -4619,8 +5900,26 @@
       <c r="S71">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:19">
+      <c r="T71">
+        <v>35825</v>
+      </c>
+      <c r="U71">
+        <v>0.1349616189811584</v>
+      </c>
+      <c r="V71">
+        <v>14</v>
+      </c>
+      <c r="W71">
+        <v>193</v>
+      </c>
+      <c r="X71">
+        <v>0.8103412616339193</v>
+      </c>
+      <c r="Y71">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" s="1">
         <v>4205</v>
       </c>
@@ -4678,8 +5977,26 @@
       <c r="S72">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:19">
+      <c r="T72">
+        <v>48520</v>
+      </c>
+      <c r="U72">
+        <v>0.0895919208573784</v>
+      </c>
+      <c r="V72">
+        <v>42</v>
+      </c>
+      <c r="W72">
+        <v>116</v>
+      </c>
+      <c r="X72">
+        <v>0.8023924545663677</v>
+      </c>
+      <c r="Y72">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" s="1">
         <v>4206</v>
       </c>
@@ -4737,8 +6054,26 @@
       <c r="S73">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:19">
+      <c r="T73">
+        <v>30120</v>
+      </c>
+      <c r="U73">
+        <v>0.1675298804780876</v>
+      </c>
+      <c r="V73">
+        <v>5</v>
+      </c>
+      <c r="W73">
+        <v>194</v>
+      </c>
+      <c r="X73">
+        <v>0.8204518430439952</v>
+      </c>
+      <c r="Y73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" s="1">
         <v>4207</v>
       </c>
@@ -4796,8 +6131,26 @@
       <c r="S74">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:19">
+      <c r="T74">
+        <v>36049</v>
+      </c>
+      <c r="U74">
+        <v>0.1069377791339566</v>
+      </c>
+      <c r="V74">
+        <v>31</v>
+      </c>
+      <c r="W74">
+        <v>187</v>
+      </c>
+      <c r="X74">
+        <v>0.8223086900129701</v>
+      </c>
+      <c r="Y74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" s="1">
         <v>4208</v>
       </c>
@@ -4855,8 +6208,26 @@
       <c r="S75">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:19">
+      <c r="T75">
+        <v>22875</v>
+      </c>
+      <c r="U75">
+        <v>0.08424043715846995</v>
+      </c>
+      <c r="V75">
+        <v>47</v>
+      </c>
+      <c r="W75">
+        <v>171</v>
+      </c>
+      <c r="X75">
+        <v>0.7830825116761806</v>
+      </c>
+      <c r="Y75">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" s="1">
         <v>4209</v>
       </c>
@@ -4914,8 +6285,26 @@
       <c r="S76">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:19">
+      <c r="T76">
+        <v>59966</v>
+      </c>
+      <c r="U76">
+        <v>0.1867891805356369</v>
+      </c>
+      <c r="V76">
+        <v>2</v>
+      </c>
+      <c r="W76">
+        <v>184</v>
+      </c>
+      <c r="X76">
+        <v>0.8397464512097135</v>
+      </c>
+      <c r="Y76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" s="1">
         <v>4210</v>
       </c>
@@ -4973,8 +6362,26 @@
       <c r="S77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:19">
+      <c r="T77">
+        <v>12981</v>
+      </c>
+      <c r="U77">
+        <v>0.1133965025806949</v>
+      </c>
+      <c r="V77">
+        <v>24</v>
+      </c>
+      <c r="W77">
+        <v>141</v>
+      </c>
+      <c r="X77">
+        <v>0.7921195652173914</v>
+      </c>
+      <c r="Y77">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" s="1">
         <v>4211</v>
       </c>
@@ -5032,8 +6439,26 @@
       <c r="S78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:19">
+      <c r="T78">
+        <v>27012</v>
+      </c>
+      <c r="U78">
+        <v>0.07274544646823634</v>
+      </c>
+      <c r="V78">
+        <v>63</v>
+      </c>
+      <c r="W78">
+        <v>128</v>
+      </c>
+      <c r="X78">
+        <v>0.7888040712468194</v>
+      </c>
+      <c r="Y78">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" s="1">
         <v>4212</v>
       </c>
@@ -5091,8 +6516,26 @@
       <c r="S79">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:19">
+      <c r="T79">
+        <v>26792</v>
+      </c>
+      <c r="U79">
+        <v>0.1568751866228725</v>
+      </c>
+      <c r="V79">
+        <v>8</v>
+      </c>
+      <c r="W79">
+        <v>196</v>
+      </c>
+      <c r="X79">
+        <v>0.8163216749940518</v>
+      </c>
+      <c r="Y79">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" s="1">
         <v>4213</v>
       </c>
@@ -5150,8 +6593,26 @@
       <c r="S80">
         <v>46</v>
       </c>
-    </row>
-    <row r="81" spans="1:19">
+      <c r="T80">
+        <v>88583</v>
+      </c>
+      <c r="U80">
+        <v>0.1378706975379023</v>
+      </c>
+      <c r="V80">
+        <v>10</v>
+      </c>
+      <c r="W80">
+        <v>189</v>
+      </c>
+      <c r="X80">
+        <v>0.8061901252763449</v>
+      </c>
+      <c r="Y80">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
       <c r="A81" s="1">
         <v>4214</v>
       </c>
@@ -5209,8 +6670,26 @@
       <c r="S81">
         <v>90</v>
       </c>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="T81">
+        <v>98014</v>
+      </c>
+      <c r="U81">
+        <v>0.1593037729303977</v>
+      </c>
+      <c r="V81">
+        <v>7</v>
+      </c>
+      <c r="W81">
+        <v>181</v>
+      </c>
+      <c r="X81">
+        <v>0.8322659152043038</v>
+      </c>
+      <c r="Y81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
       <c r="A82" s="1">
         <v>4215</v>
       </c>
@@ -5268,8 +6747,26 @@
       <c r="S82">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="T82">
+        <v>16324</v>
+      </c>
+      <c r="U82">
+        <v>0.1335456995834354</v>
+      </c>
+      <c r="V82">
+        <v>15</v>
+      </c>
+      <c r="W82">
+        <v>204</v>
+      </c>
+      <c r="X82">
+        <v>0.8087155963302752</v>
+      </c>
+      <c r="Y82">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" s="1">
         <v>4216</v>
       </c>
@@ -5327,8 +6824,26 @@
       <c r="S83">
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="1:19">
+      <c r="T83">
+        <v>22626</v>
+      </c>
+      <c r="U83">
+        <v>0.1259170865376116</v>
+      </c>
+      <c r="V83">
+        <v>16</v>
+      </c>
+      <c r="W83">
+        <v>167</v>
+      </c>
+      <c r="X83">
+        <v>0.8111618111618112</v>
+      </c>
+      <c r="Y83">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" s="1">
         <v>5101</v>
       </c>
@@ -5386,8 +6901,26 @@
       <c r="S84">
         <v>19</v>
       </c>
-    </row>
-    <row r="85" spans="1:19">
+      <c r="T84">
+        <v>63401</v>
+      </c>
+      <c r="U84">
+        <v>0.1213860980110724</v>
+      </c>
+      <c r="V84">
+        <v>18</v>
+      </c>
+      <c r="W84">
+        <v>120</v>
+      </c>
+      <c r="X84">
+        <v>0.7869022869022869</v>
+      </c>
+      <c r="Y84">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
       <c r="A85" s="1">
         <v>5102</v>
       </c>
@@ -5445,8 +6978,26 @@
       <c r="S85">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:19">
+      <c r="T85">
+        <v>20326</v>
+      </c>
+      <c r="U85">
+        <v>0.1196497097313785</v>
+      </c>
+      <c r="V85">
+        <v>20</v>
+      </c>
+      <c r="W85">
+        <v>192</v>
+      </c>
+      <c r="X85">
+        <v>0.8133223684210527</v>
+      </c>
+      <c r="Y85">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
       <c r="A86" s="1">
         <v>5103</v>
       </c>
@@ -5504,8 +7055,26 @@
       <c r="S86">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:19">
+      <c r="T86">
+        <v>46529</v>
+      </c>
+      <c r="U86">
+        <v>0.09785295192245697</v>
+      </c>
+      <c r="V86">
+        <v>37</v>
+      </c>
+      <c r="W86">
+        <v>119</v>
+      </c>
+      <c r="X86">
+        <v>0.7955194377333626</v>
+      </c>
+      <c r="Y86">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" s="1">
         <v>5104</v>
       </c>
@@ -5563,8 +7132,26 @@
       <c r="S87">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:19">
+      <c r="T87">
+        <v>18294</v>
+      </c>
+      <c r="U87">
+        <v>0.04247294194817973</v>
+      </c>
+      <c r="V87">
+        <v>175</v>
+      </c>
+      <c r="W87">
+        <v>80</v>
+      </c>
+      <c r="X87">
+        <v>0.7786357786357786</v>
+      </c>
+      <c r="Y87">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
       <c r="A88" s="1">
         <v>5105</v>
       </c>
@@ -5622,8 +7209,26 @@
       <c r="S88">
         <v>28</v>
       </c>
-    </row>
-    <row r="89" spans="1:19">
+      <c r="T88">
+        <v>120066</v>
+      </c>
+      <c r="U88">
+        <v>0.09473955990871687</v>
+      </c>
+      <c r="V88">
+        <v>40</v>
+      </c>
+      <c r="W88">
+        <v>27</v>
+      </c>
+      <c r="X88">
+        <v>0.7841758241758242</v>
+      </c>
+      <c r="Y88">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
       <c r="A89" s="1">
         <v>5106</v>
       </c>
@@ -5681,8 +7286,26 @@
       <c r="S89">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="1:19">
+      <c r="T89">
+        <v>22163</v>
+      </c>
+      <c r="U89">
+        <v>0.0980011731263818</v>
+      </c>
+      <c r="V89">
+        <v>36</v>
+      </c>
+      <c r="W89">
+        <v>134</v>
+      </c>
+      <c r="X89">
+        <v>0.8126151012891344</v>
+      </c>
+      <c r="Y89">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
       <c r="A90" s="1">
         <v>5107</v>
       </c>
@@ -5740,8 +7363,26 @@
       <c r="S90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="T90">
+        <v>21251</v>
+      </c>
+      <c r="U90">
+        <v>0.05995011999435321</v>
+      </c>
+      <c r="V90">
+        <v>103</v>
+      </c>
+      <c r="W90">
+        <v>157</v>
+      </c>
+      <c r="X90">
+        <v>0.783359497645212</v>
+      </c>
+      <c r="Y90">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
       <c r="A91" s="1">
         <v>5108</v>
       </c>
@@ -5799,8 +7440,26 @@
       <c r="S91">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:19">
+      <c r="T91">
+        <v>16950</v>
+      </c>
+      <c r="U91">
+        <v>0.1090265486725664</v>
+      </c>
+      <c r="V91">
+        <v>30</v>
+      </c>
+      <c r="W91">
+        <v>150</v>
+      </c>
+      <c r="X91">
+        <v>0.8176406926406926</v>
+      </c>
+      <c r="Y91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
       <c r="A92" s="1">
         <v>5109</v>
       </c>
@@ -5858,8 +7517,26 @@
       <c r="S92">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="T92">
+        <v>27321</v>
+      </c>
+      <c r="U92">
+        <v>0.04505691592547857</v>
+      </c>
+      <c r="V92">
+        <v>163</v>
+      </c>
+      <c r="W92">
+        <v>28</v>
+      </c>
+      <c r="X92">
+        <v>0.7359870024370431</v>
+      </c>
+      <c r="Y92">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
       <c r="A93" s="1">
         <v>5110</v>
       </c>
@@ -5917,8 +7594,26 @@
       <c r="S93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:19">
+      <c r="T93">
+        <v>10063</v>
+      </c>
+      <c r="U93">
+        <v>0.05455629533936202</v>
+      </c>
+      <c r="V93">
+        <v>120</v>
+      </c>
+      <c r="W93">
+        <v>158</v>
+      </c>
+      <c r="X93">
+        <v>0.7759562841530054</v>
+      </c>
+      <c r="Y93">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
       <c r="A94" s="1">
         <v>5201</v>
       </c>
@@ -5973,8 +7668,29 @@
       <c r="R94">
         <v>359</v>
       </c>
-    </row>
-    <row r="95" spans="1:19">
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>13215</v>
+      </c>
+      <c r="U94">
+        <v>0.1100264850548619</v>
+      </c>
+      <c r="V94">
+        <v>27</v>
+      </c>
+      <c r="W94">
+        <v>191</v>
+      </c>
+      <c r="X94">
+        <v>0.8259972489683631</v>
+      </c>
+      <c r="Y94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
       <c r="A95" s="1">
         <v>5202</v>
       </c>
@@ -6032,8 +7748,26 @@
       <c r="S95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:19">
+      <c r="T95">
+        <v>16604</v>
+      </c>
+      <c r="U95">
+        <v>0.05179474825343291</v>
+      </c>
+      <c r="V95">
+        <v>133</v>
+      </c>
+      <c r="W95">
+        <v>131</v>
+      </c>
+      <c r="X95">
+        <v>0.7732558139534884</v>
+      </c>
+      <c r="Y95">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
       <c r="A96" s="1">
         <v>5203</v>
       </c>
@@ -6091,8 +7825,26 @@
       <c r="S96">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:19">
+      <c r="T96">
+        <v>22645</v>
+      </c>
+      <c r="U96">
+        <v>0.06314859792448664</v>
+      </c>
+      <c r="V96">
+        <v>98</v>
+      </c>
+      <c r="W96">
+        <v>17</v>
+      </c>
+      <c r="X96">
+        <v>0.7797202797202797</v>
+      </c>
+      <c r="Y96">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
       <c r="A97" s="1">
         <v>5204</v>
       </c>
@@ -6150,8 +7902,26 @@
       <c r="S97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:19">
+      <c r="T97">
+        <v>15289</v>
+      </c>
+      <c r="U97">
+        <v>0.05435280266858526</v>
+      </c>
+      <c r="V97">
+        <v>121</v>
+      </c>
+      <c r="W97">
+        <v>133</v>
+      </c>
+      <c r="X97">
+        <v>0.7521058965102286</v>
+      </c>
+      <c r="Y97">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
       <c r="A98" s="1">
         <v>5205</v>
       </c>
@@ -6209,8 +7979,26 @@
       <c r="S98">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:19">
+      <c r="T98">
+        <v>121683</v>
+      </c>
+      <c r="U98">
+        <v>0.05384482631098839</v>
+      </c>
+      <c r="V98">
+        <v>124</v>
+      </c>
+      <c r="W98">
+        <v>57</v>
+      </c>
+      <c r="X98">
+        <v>0.7817460317460317</v>
+      </c>
+      <c r="Y98">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25">
       <c r="A99" s="1">
         <v>5206</v>
       </c>
@@ -6268,8 +8056,26 @@
       <c r="S99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:19">
+      <c r="T99">
+        <v>16045</v>
+      </c>
+      <c r="U99">
+        <v>0.07186039264568402</v>
+      </c>
+      <c r="V99">
+        <v>68</v>
+      </c>
+      <c r="W99">
+        <v>113</v>
+      </c>
+      <c r="X99">
+        <v>0.8412836079791848</v>
+      </c>
+      <c r="Y99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
       <c r="A100" s="1">
         <v>5207</v>
       </c>
@@ -6327,8 +8133,26 @@
       <c r="S100">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:19">
+      <c r="T100">
+        <v>39967</v>
+      </c>
+      <c r="U100">
+        <v>0.05684689869142042</v>
+      </c>
+      <c r="V100">
+        <v>115</v>
+      </c>
+      <c r="W100">
+        <v>146</v>
+      </c>
+      <c r="X100">
+        <v>0.7742077464788732</v>
+      </c>
+      <c r="Y100">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
       <c r="A101" s="1">
         <v>5208</v>
       </c>
@@ -6386,8 +8210,26 @@
       <c r="S101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:19">
+      <c r="T101">
+        <v>21017</v>
+      </c>
+      <c r="U101">
+        <v>0.05709663605652567</v>
+      </c>
+      <c r="V101">
+        <v>113</v>
+      </c>
+      <c r="W101">
+        <v>118</v>
+      </c>
+      <c r="X101">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="Y101">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
       <c r="A102" s="1">
         <v>5209</v>
       </c>
@@ -6445,8 +8287,26 @@
       <c r="S102">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:19">
+      <c r="T102">
+        <v>50235</v>
+      </c>
+      <c r="U102">
+        <v>0.05762914302776948</v>
+      </c>
+      <c r="V102">
+        <v>110</v>
+      </c>
+      <c r="W102">
+        <v>65</v>
+      </c>
+      <c r="X102">
+        <v>0.7861830742659758</v>
+      </c>
+      <c r="Y102">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
       <c r="A103" s="1">
         <v>5210</v>
       </c>
@@ -6504,8 +8364,26 @@
       <c r="S103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:19">
+      <c r="T103">
+        <v>10996</v>
+      </c>
+      <c r="U103">
+        <v>0.05101855220080029</v>
+      </c>
+      <c r="V103">
+        <v>138</v>
+      </c>
+      <c r="W103">
+        <v>179</v>
+      </c>
+      <c r="X103">
+        <v>0.7825311942959001</v>
+      </c>
+      <c r="Y103">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
       <c r="A104" s="1">
         <v>5211</v>
       </c>
@@ -6563,8 +8441,26 @@
       <c r="S104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:19">
+      <c r="T104">
+        <v>11818</v>
+      </c>
+      <c r="U104">
+        <v>0.03655440852936199</v>
+      </c>
+      <c r="V104">
+        <v>194</v>
+      </c>
+      <c r="W104">
+        <v>97</v>
+      </c>
+      <c r="X104">
+        <v>0.7569444444444444</v>
+      </c>
+      <c r="Y104">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25">
       <c r="A105" s="1">
         <v>5212</v>
       </c>
@@ -6622,8 +8518,26 @@
       <c r="S105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:19">
+      <c r="T105">
+        <v>14839</v>
+      </c>
+      <c r="U105">
+        <v>0.06597479614529281</v>
+      </c>
+      <c r="V105">
+        <v>84</v>
+      </c>
+      <c r="W105">
+        <v>195</v>
+      </c>
+      <c r="X105">
+        <v>0.7885597548518897</v>
+      </c>
+      <c r="Y105">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
       <c r="A106" s="1">
         <v>5213</v>
       </c>
@@ -6681,8 +8595,26 @@
       <c r="S106">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:19">
+      <c r="T106">
+        <v>28268</v>
+      </c>
+      <c r="U106">
+        <v>0.05023347955285128</v>
+      </c>
+      <c r="V106">
+        <v>143</v>
+      </c>
+      <c r="W106">
+        <v>172</v>
+      </c>
+      <c r="X106">
+        <v>0.7316901408450704</v>
+      </c>
+      <c r="Y106">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25">
       <c r="A107" s="1">
         <v>5214</v>
       </c>
@@ -6740,8 +8672,26 @@
       <c r="S107">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:19">
+      <c r="T107">
+        <v>52344</v>
+      </c>
+      <c r="U107">
+        <v>0.08421213510622039</v>
+      </c>
+      <c r="V107">
+        <v>48</v>
+      </c>
+      <c r="W107">
+        <v>106</v>
+      </c>
+      <c r="X107">
+        <v>0.8026315789473685</v>
+      </c>
+      <c r="Y107">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
       <c r="A108" s="1">
         <v>5215</v>
       </c>
@@ -6799,8 +8749,26 @@
       <c r="S108">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:19">
+      <c r="T108">
+        <v>22501</v>
+      </c>
+      <c r="U108">
+        <v>0.06835251766588152</v>
+      </c>
+      <c r="V108">
+        <v>77</v>
+      </c>
+      <c r="W108">
+        <v>54</v>
+      </c>
+      <c r="X108">
+        <v>0.7815344603381015</v>
+      </c>
+      <c r="Y108">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25">
       <c r="A109" s="1">
         <v>5301</v>
       </c>
@@ -6858,8 +8826,26 @@
       <c r="S109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:19">
+      <c r="T109">
+        <v>14976</v>
+      </c>
+      <c r="U109">
+        <v>0.07057959401709402</v>
+      </c>
+      <c r="V109">
+        <v>70</v>
+      </c>
+      <c r="W109">
+        <v>197</v>
+      </c>
+      <c r="X109">
+        <v>0.8211920529801324</v>
+      </c>
+      <c r="Y109">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25">
       <c r="A110" s="1">
         <v>5302</v>
       </c>
@@ -6917,8 +8903,26 @@
       <c r="S110">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:19">
+      <c r="T110">
+        <v>17592</v>
+      </c>
+      <c r="U110">
+        <v>0.03728967712596635</v>
+      </c>
+      <c r="V110">
+        <v>192</v>
+      </c>
+      <c r="W110">
+        <v>67</v>
+      </c>
+      <c r="X110">
+        <v>0.8064024390243902</v>
+      </c>
+      <c r="Y110">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25">
       <c r="A111" s="1">
         <v>5303</v>
       </c>
@@ -6976,8 +8980,26 @@
       <c r="S111">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:19">
+      <c r="T111">
+        <v>14903</v>
+      </c>
+      <c r="U111">
+        <v>0.04415218412400188</v>
+      </c>
+      <c r="V111">
+        <v>171</v>
+      </c>
+      <c r="W111">
+        <v>84</v>
+      </c>
+      <c r="X111">
+        <v>0.7644376899696048</v>
+      </c>
+      <c r="Y111">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25">
       <c r="A112" s="1">
         <v>5304</v>
       </c>
@@ -7035,8 +9057,26 @@
       <c r="S112">
         <v>12</v>
       </c>
-    </row>
-    <row r="113" spans="1:19">
+      <c r="T112">
+        <v>69739</v>
+      </c>
+      <c r="U112">
+        <v>0.05190782775778259</v>
+      </c>
+      <c r="V112">
+        <v>131</v>
+      </c>
+      <c r="W112">
+        <v>110</v>
+      </c>
+      <c r="X112">
+        <v>0.7665745856353591</v>
+      </c>
+      <c r="Y112">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25">
       <c r="A113" s="1">
         <v>5305</v>
       </c>
@@ -7094,8 +9134,26 @@
       <c r="S113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:19">
+      <c r="T113">
+        <v>7111</v>
+      </c>
+      <c r="U113">
+        <v>0.07621994093657714</v>
+      </c>
+      <c r="V113">
+        <v>55</v>
+      </c>
+      <c r="W113">
+        <v>14</v>
+      </c>
+      <c r="X113">
+        <v>0.8062730627306273</v>
+      </c>
+      <c r="Y113">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25">
       <c r="A114" s="1">
         <v>5306</v>
       </c>
@@ -7150,8 +9208,29 @@
       <c r="R114">
         <v>169</v>
       </c>
-    </row>
-    <row r="115" spans="1:19">
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>18733</v>
+      </c>
+      <c r="U114">
+        <v>0.04921795761490418</v>
+      </c>
+      <c r="V114">
+        <v>152</v>
+      </c>
+      <c r="W114">
+        <v>41</v>
+      </c>
+      <c r="X114">
+        <v>0.7733188720173536</v>
+      </c>
+      <c r="Y114">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25">
       <c r="A115" s="1">
         <v>5307</v>
       </c>
@@ -7209,8 +9288,26 @@
       <c r="S115">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:19">
+      <c r="T115">
+        <v>22342</v>
+      </c>
+      <c r="U115">
+        <v>0.04068570405514278</v>
+      </c>
+      <c r="V115">
+        <v>180</v>
+      </c>
+      <c r="W115">
+        <v>153</v>
+      </c>
+      <c r="X115">
+        <v>0.7304730473047305</v>
+      </c>
+      <c r="Y115">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
       <c r="A116" s="1">
         <v>5308</v>
       </c>
@@ -7268,8 +9365,26 @@
       <c r="S116">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:19">
+      <c r="T116">
+        <v>21917</v>
+      </c>
+      <c r="U116">
+        <v>0.06465300907970982</v>
+      </c>
+      <c r="V116">
+        <v>91</v>
+      </c>
+      <c r="W116">
+        <v>124</v>
+      </c>
+      <c r="X116">
+        <v>0.799576570218772</v>
+      </c>
+      <c r="Y116">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25">
       <c r="A117" s="1">
         <v>5309</v>
       </c>
@@ -7327,8 +9442,26 @@
       <c r="S117">
         <v>40</v>
       </c>
-    </row>
-    <row r="118" spans="1:19">
+      <c r="T117">
+        <v>107735</v>
+      </c>
+      <c r="U117">
+        <v>0.06955956745718661</v>
+      </c>
+      <c r="V117">
+        <v>71</v>
+      </c>
+      <c r="W117">
+        <v>53</v>
+      </c>
+      <c r="X117">
+        <v>0.7337870296236989</v>
+      </c>
+      <c r="Y117">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25">
       <c r="A118" s="1">
         <v>5310</v>
       </c>
@@ -7386,8 +9519,26 @@
       <c r="S118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:19">
+      <c r="T118">
+        <v>16314</v>
+      </c>
+      <c r="U118">
+        <v>0.03592006865269094</v>
+      </c>
+      <c r="V118">
+        <v>197</v>
+      </c>
+      <c r="W118">
+        <v>202</v>
+      </c>
+      <c r="X118">
+        <v>0.7593856655290102</v>
+      </c>
+      <c r="Y118">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25">
       <c r="A119" s="1">
         <v>5311</v>
       </c>
@@ -7445,8 +9596,26 @@
       <c r="S119">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:19">
+      <c r="T119">
+        <v>21357</v>
+      </c>
+      <c r="U119">
+        <v>0.06859577656037832</v>
+      </c>
+      <c r="V119">
+        <v>75</v>
+      </c>
+      <c r="W119">
+        <v>13</v>
+      </c>
+      <c r="X119">
+        <v>0.736518771331058</v>
+      </c>
+      <c r="Y119">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25">
       <c r="A120" s="1">
         <v>5312</v>
       </c>
@@ -7504,8 +9673,26 @@
       <c r="S120">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:19">
+      <c r="T120">
+        <v>25974</v>
+      </c>
+      <c r="U120">
+        <v>0.07465157465157465</v>
+      </c>
+      <c r="V120">
+        <v>59</v>
+      </c>
+      <c r="W120">
+        <v>121</v>
+      </c>
+      <c r="X120">
+        <v>0.7921609076843734</v>
+      </c>
+      <c r="Y120">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25">
       <c r="A121" s="1">
         <v>5313</v>
       </c>
@@ -7563,8 +9750,26 @@
       <c r="S121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:19">
+      <c r="T121">
+        <v>21969</v>
+      </c>
+      <c r="U121">
+        <v>0.05166370795211434</v>
+      </c>
+      <c r="V121">
+        <v>134</v>
+      </c>
+      <c r="W121">
+        <v>108</v>
+      </c>
+      <c r="X121">
+        <v>0.798237885462555</v>
+      </c>
+      <c r="Y121">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25">
       <c r="A122" s="1">
         <v>5314</v>
       </c>
@@ -7622,8 +9827,26 @@
       <c r="S122">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:19">
+      <c r="T122">
+        <v>26914</v>
+      </c>
+      <c r="U122">
+        <v>0.05238909117931188</v>
+      </c>
+      <c r="V122">
+        <v>129</v>
+      </c>
+      <c r="W122">
+        <v>180</v>
+      </c>
+      <c r="X122">
+        <v>0.7588652482269503</v>
+      </c>
+      <c r="Y122">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25">
       <c r="A123" s="1">
         <v>5315</v>
       </c>
@@ -7681,8 +9904,26 @@
       <c r="S123">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:19">
+      <c r="T123">
+        <v>24057</v>
+      </c>
+      <c r="U123">
+        <v>0.04011306480442283</v>
+      </c>
+      <c r="V123">
+        <v>181</v>
+      </c>
+      <c r="W123">
+        <v>85</v>
+      </c>
+      <c r="X123">
+        <v>0.7595854922279792</v>
+      </c>
+      <c r="Y123">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25">
       <c r="A124" s="1">
         <v>6101</v>
       </c>
@@ -7740,8 +9981,26 @@
       <c r="S124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:19">
+      <c r="T124">
+        <v>16538</v>
+      </c>
+      <c r="U124">
+        <v>0.04075462571048494</v>
+      </c>
+      <c r="V124">
+        <v>179</v>
+      </c>
+      <c r="W124">
+        <v>10</v>
+      </c>
+      <c r="X124">
+        <v>0.8219584569732937</v>
+      </c>
+      <c r="Y124">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25">
       <c r="A125" s="1">
         <v>6102</v>
       </c>
@@ -7799,8 +10058,26 @@
       <c r="S125">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:19">
+      <c r="T125">
+        <v>44044</v>
+      </c>
+      <c r="U125">
+        <v>0.04438743075106712</v>
+      </c>
+      <c r="V125">
+        <v>168</v>
+      </c>
+      <c r="W125">
+        <v>89</v>
+      </c>
+      <c r="X125">
+        <v>0.7442455242966752</v>
+      </c>
+      <c r="Y125">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25">
       <c r="A126" s="1">
         <v>6103</v>
       </c>
@@ -7858,8 +10135,26 @@
       <c r="S126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:19">
+      <c r="T126">
+        <v>14877</v>
+      </c>
+      <c r="U126">
+        <v>0.03851582980439604</v>
+      </c>
+      <c r="V126">
+        <v>190</v>
+      </c>
+      <c r="W126">
+        <v>173</v>
+      </c>
+      <c r="X126">
+        <v>0.7015706806282722</v>
+      </c>
+      <c r="Y126">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25">
       <c r="A127" s="1">
         <v>6104</v>
       </c>
@@ -7917,8 +10212,26 @@
       <c r="S127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:19">
+      <c r="T127">
+        <v>18260</v>
+      </c>
+      <c r="U127">
+        <v>0.0391566265060241</v>
+      </c>
+      <c r="V127">
+        <v>185</v>
+      </c>
+      <c r="W127">
+        <v>16</v>
+      </c>
+      <c r="X127">
+        <v>0.7608391608391608</v>
+      </c>
+      <c r="Y127">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25">
       <c r="A128" s="1">
         <v>6105</v>
       </c>
@@ -7976,8 +10289,26 @@
       <c r="S128">
         <v>36</v>
       </c>
-    </row>
-    <row r="129" spans="1:19">
+      <c r="T128">
+        <v>83189</v>
+      </c>
+      <c r="U128">
+        <v>0.05702677036627439</v>
+      </c>
+      <c r="V128">
+        <v>114</v>
+      </c>
+      <c r="W128">
+        <v>7</v>
+      </c>
+      <c r="X128">
+        <v>0.8109190556492412</v>
+      </c>
+      <c r="Y128">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25">
       <c r="A129" s="1">
         <v>6106</v>
       </c>
@@ -8035,8 +10366,26 @@
       <c r="S129">
         <v>15</v>
       </c>
-    </row>
-    <row r="130" spans="1:19">
+      <c r="T129">
+        <v>19317</v>
+      </c>
+      <c r="U129">
+        <v>0.05218201584096909</v>
+      </c>
+      <c r="V129">
+        <v>130</v>
+      </c>
+      <c r="W129">
+        <v>75</v>
+      </c>
+      <c r="X129">
+        <v>0.808531746031746</v>
+      </c>
+      <c r="Y129">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25">
       <c r="A130" s="1">
         <v>6107</v>
       </c>
@@ -8094,8 +10443,26 @@
       <c r="S130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:19">
+      <c r="T130">
+        <v>11250</v>
+      </c>
+      <c r="U130">
+        <v>0.0352</v>
+      </c>
+      <c r="V130">
+        <v>198</v>
+      </c>
+      <c r="W130">
+        <v>18</v>
+      </c>
+      <c r="X130">
+        <v>0.7676767676767676</v>
+      </c>
+      <c r="Y130">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25">
       <c r="A131" s="1">
         <v>6108</v>
       </c>
@@ -8153,8 +10520,26 @@
       <c r="S131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:19">
+      <c r="T131">
+        <v>16057</v>
+      </c>
+      <c r="U131">
+        <v>0.03954661518340911</v>
+      </c>
+      <c r="V131">
+        <v>184</v>
+      </c>
+      <c r="W131">
+        <v>26</v>
+      </c>
+      <c r="X131">
+        <v>0.7590551181102362</v>
+      </c>
+      <c r="Y131">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25">
       <c r="A132" s="1">
         <v>6109</v>
       </c>
@@ -8212,8 +10597,26 @@
       <c r="S132">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:19">
+      <c r="T132">
+        <v>7964</v>
+      </c>
+      <c r="U132">
+        <v>0.03905072827724761</v>
+      </c>
+      <c r="V132">
+        <v>186</v>
+      </c>
+      <c r="W132">
+        <v>164</v>
+      </c>
+      <c r="X132">
+        <v>0.7652733118971061</v>
+      </c>
+      <c r="Y132">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25">
       <c r="A133" s="1">
         <v>6110</v>
       </c>
@@ -8271,8 +10674,26 @@
       <c r="S133">
         <v>22</v>
       </c>
-    </row>
-    <row r="134" spans="1:19">
+      <c r="T133">
+        <v>38110</v>
+      </c>
+      <c r="U133">
+        <v>0.04683810023615849</v>
+      </c>
+      <c r="V133">
+        <v>157</v>
+      </c>
+      <c r="W133">
+        <v>62</v>
+      </c>
+      <c r="X133">
+        <v>0.7658263305322129</v>
+      </c>
+      <c r="Y133">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25">
       <c r="A134" s="1">
         <v>6111</v>
       </c>
@@ -8330,8 +10751,26 @@
       <c r="S134">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="1:19">
+      <c r="T134">
+        <v>16526</v>
+      </c>
+      <c r="U134">
+        <v>0.04078421880672879</v>
+      </c>
+      <c r="V134">
+        <v>178</v>
+      </c>
+      <c r="W134">
+        <v>23</v>
+      </c>
+      <c r="X134">
+        <v>0.7596439169139466</v>
+      </c>
+      <c r="Y134">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25">
       <c r="A135" s="1">
         <v>6112</v>
       </c>
@@ -8389,8 +10828,26 @@
       <c r="S135">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:19">
+      <c r="T135">
+        <v>10815</v>
+      </c>
+      <c r="U135">
+        <v>0.03966712898751733</v>
+      </c>
+      <c r="V135">
+        <v>183</v>
+      </c>
+      <c r="W135">
+        <v>68</v>
+      </c>
+      <c r="X135">
+        <v>0.7389277389277389</v>
+      </c>
+      <c r="Y135">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25">
       <c r="A136" s="1">
         <v>6113</v>
       </c>
@@ -8448,8 +10905,26 @@
       <c r="S136">
         <v>19</v>
       </c>
-    </row>
-    <row r="137" spans="1:19">
+      <c r="T136">
+        <v>62003</v>
+      </c>
+      <c r="U136">
+        <v>0.04517523345644565</v>
+      </c>
+      <c r="V136">
+        <v>162</v>
+      </c>
+      <c r="W136">
+        <v>51</v>
+      </c>
+      <c r="X136">
+        <v>0.7907890039271689</v>
+      </c>
+      <c r="Y136">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25">
       <c r="A137" s="1">
         <v>6114</v>
       </c>
@@ -8507,8 +10982,26 @@
       <c r="S137">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:19">
+      <c r="T137">
+        <v>29970</v>
+      </c>
+      <c r="U137">
+        <v>0.03089756423089756</v>
+      </c>
+      <c r="V137">
+        <v>204</v>
+      </c>
+      <c r="W137">
+        <v>8</v>
+      </c>
+      <c r="X137">
+        <v>0.7775377969762419</v>
+      </c>
+      <c r="Y137">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25">
       <c r="A138" s="1">
         <v>6115</v>
       </c>
@@ -8566,8 +11059,26 @@
       <c r="S138">
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:19">
+      <c r="T138">
+        <v>35541</v>
+      </c>
+      <c r="U138">
+        <v>0.03407332376691708</v>
+      </c>
+      <c r="V138">
+        <v>201</v>
+      </c>
+      <c r="W138">
+        <v>63</v>
+      </c>
+      <c r="X138">
+        <v>0.7720891824938068</v>
+      </c>
+      <c r="Y138">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25">
       <c r="A139" s="1">
         <v>6201</v>
       </c>
@@ -8625,8 +11136,26 @@
       <c r="S139">
         <v>9</v>
       </c>
-    </row>
-    <row r="140" spans="1:19">
+      <c r="T139">
+        <v>46578</v>
+      </c>
+      <c r="U139">
+        <v>0.04182231955000214</v>
+      </c>
+      <c r="V139">
+        <v>177</v>
+      </c>
+      <c r="W139">
+        <v>47</v>
+      </c>
+      <c r="X139">
+        <v>0.7643737166324436</v>
+      </c>
+      <c r="Y139">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25">
       <c r="A140" s="1">
         <v>6202</v>
       </c>
@@ -8684,8 +11213,26 @@
       <c r="S140">
         <v>14</v>
       </c>
-    </row>
-    <row r="141" spans="1:19">
+      <c r="T140">
+        <v>43244</v>
+      </c>
+      <c r="U140">
+        <v>0.04204051429099991</v>
+      </c>
+      <c r="V140">
+        <v>176</v>
+      </c>
+      <c r="W140">
+        <v>37</v>
+      </c>
+      <c r="X140">
+        <v>0.7535753575357536</v>
+      </c>
+      <c r="Y140">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25">
       <c r="A141" s="1">
         <v>6203</v>
       </c>
@@ -8743,8 +11290,26 @@
       <c r="S141">
         <v>283</v>
       </c>
-    </row>
-    <row r="142" spans="1:19">
+      <c r="T141">
+        <v>319229</v>
+      </c>
+      <c r="U141">
+        <v>0.07885561775402611</v>
+      </c>
+      <c r="V141">
+        <v>51</v>
+      </c>
+      <c r="W141">
+        <v>52</v>
+      </c>
+      <c r="X141">
+        <v>0.7790489810511262</v>
+      </c>
+      <c r="Y141">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25">
       <c r="A142" s="1">
         <v>6204</v>
       </c>
@@ -8802,8 +11367,26 @@
       <c r="S142">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:19">
+      <c r="T142">
+        <v>49558</v>
+      </c>
+      <c r="U142">
+        <v>0.06677024900117035</v>
+      </c>
+      <c r="V142">
+        <v>81</v>
+      </c>
+      <c r="W142">
+        <v>64</v>
+      </c>
+      <c r="X142">
+        <v>0.7431248111211847</v>
+      </c>
+      <c r="Y142">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25">
       <c r="A143" s="1">
         <v>6205</v>
       </c>
@@ -8861,8 +11444,26 @@
       <c r="S143">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:19">
+      <c r="T143">
+        <v>13603</v>
+      </c>
+      <c r="U143">
+        <v>0.06402999338381239</v>
+      </c>
+      <c r="V143">
+        <v>94</v>
+      </c>
+      <c r="W143">
+        <v>79</v>
+      </c>
+      <c r="X143">
+        <v>0.7807118254879449</v>
+      </c>
+      <c r="Y143">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25">
       <c r="A144" s="1">
         <v>6206</v>
       </c>
@@ -8920,8 +11521,26 @@
       <c r="S144">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:19">
+      <c r="T144">
+        <v>50716</v>
+      </c>
+      <c r="U144">
+        <v>0.06500907011593975</v>
+      </c>
+      <c r="V144">
+        <v>88</v>
+      </c>
+      <c r="W144">
+        <v>73</v>
+      </c>
+      <c r="X144">
+        <v>0.7549287230815893</v>
+      </c>
+      <c r="Y144">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25">
       <c r="A145" s="1">
         <v>6207</v>
       </c>
@@ -8979,8 +11598,26 @@
       <c r="S145">
         <v>13</v>
       </c>
-    </row>
-    <row r="146" spans="1:19">
+      <c r="T145">
+        <v>30282</v>
+      </c>
+      <c r="U145">
+        <v>0.04345815996301433</v>
+      </c>
+      <c r="V145">
+        <v>172</v>
+      </c>
+      <c r="W145">
+        <v>12</v>
+      </c>
+      <c r="X145">
+        <v>0.7553191489361702</v>
+      </c>
+      <c r="Y145">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25">
       <c r="A146" s="1">
         <v>6208</v>
       </c>
@@ -9038,8 +11675,26 @@
       <c r="S146">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:19">
+      <c r="T146">
+        <v>20571</v>
+      </c>
+      <c r="U146">
+        <v>0.05896650624665792</v>
+      </c>
+      <c r="V146">
+        <v>105</v>
+      </c>
+      <c r="W146">
+        <v>42</v>
+      </c>
+      <c r="X146">
+        <v>0.7502061005770816</v>
+      </c>
+      <c r="Y146">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25">
       <c r="A147" s="1">
         <v>6209</v>
       </c>
@@ -9097,8 +11752,26 @@
       <c r="S147">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:19">
+      <c r="T147">
+        <v>19132</v>
+      </c>
+      <c r="U147">
+        <v>0.03846957976165587</v>
+      </c>
+      <c r="V147">
+        <v>191</v>
+      </c>
+      <c r="W147">
+        <v>32</v>
+      </c>
+      <c r="X147">
+        <v>0.7635869565217391</v>
+      </c>
+      <c r="Y147">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25">
       <c r="A148" s="1">
         <v>6210</v>
       </c>
@@ -9156,8 +11829,26 @@
       <c r="S148">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:19">
+      <c r="T148">
+        <v>46729</v>
+      </c>
+      <c r="U148">
+        <v>0.04496137302317619</v>
+      </c>
+      <c r="V148">
+        <v>164</v>
+      </c>
+      <c r="W148">
+        <v>46</v>
+      </c>
+      <c r="X148">
+        <v>0.7677296525464065</v>
+      </c>
+      <c r="Y148">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25">
       <c r="A149" s="1">
         <v>6211</v>
       </c>
@@ -9215,8 +11906,26 @@
       <c r="S149">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:19">
+      <c r="T149">
+        <v>17075</v>
+      </c>
+      <c r="U149">
+        <v>0.08802342606149341</v>
+      </c>
+      <c r="V149">
+        <v>43</v>
+      </c>
+      <c r="W149">
+        <v>69</v>
+      </c>
+      <c r="X149">
+        <v>0.7178975382568197</v>
+      </c>
+      <c r="Y149">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25">
       <c r="A150" s="1">
         <v>6212</v>
       </c>
@@ -9274,8 +11983,26 @@
       <c r="S150">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:19">
+      <c r="T150">
+        <v>18930</v>
+      </c>
+      <c r="U150">
+        <v>0.05081880612783941</v>
+      </c>
+      <c r="V150">
+        <v>140</v>
+      </c>
+      <c r="W150">
+        <v>92</v>
+      </c>
+      <c r="X150">
+        <v>0.7900207900207901</v>
+      </c>
+      <c r="Y150">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25">
       <c r="A151" s="1">
         <v>6213</v>
       </c>
@@ -9333,8 +12060,26 @@
       <c r="S151">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:19">
+      <c r="T151">
+        <v>12281</v>
+      </c>
+      <c r="U151">
+        <v>0.05651005618434981</v>
+      </c>
+      <c r="V151">
+        <v>116</v>
+      </c>
+      <c r="W151">
+        <v>49</v>
+      </c>
+      <c r="X151">
+        <v>0.7305475504322767</v>
+      </c>
+      <c r="Y151">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25">
       <c r="A152" s="1">
         <v>6214</v>
       </c>
@@ -9392,8 +12137,26 @@
       <c r="S152">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:19">
+      <c r="T152">
+        <v>21632</v>
+      </c>
+      <c r="U152">
+        <v>0.04460983727810651</v>
+      </c>
+      <c r="V152">
+        <v>167</v>
+      </c>
+      <c r="W152">
+        <v>74</v>
+      </c>
+      <c r="X152">
+        <v>0.7626943005181347</v>
+      </c>
+      <c r="Y152">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25">
       <c r="A153" s="1">
         <v>6215</v>
       </c>
@@ -9451,8 +12214,26 @@
       <c r="S153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:19">
+      <c r="T153">
+        <v>19624</v>
+      </c>
+      <c r="U153">
+        <v>0.03658785161027314</v>
+      </c>
+      <c r="V153">
+        <v>193</v>
+      </c>
+      <c r="W153">
+        <v>45</v>
+      </c>
+      <c r="X153">
+        <v>0.7701949860724234</v>
+      </c>
+      <c r="Y153">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25">
       <c r="A154" s="1">
         <v>6216</v>
       </c>
@@ -9510,8 +12291,26 @@
       <c r="S154">
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:19">
+      <c r="T154">
+        <v>56997</v>
+      </c>
+      <c r="U154">
+        <v>0.02845763812130463</v>
+      </c>
+      <c r="V154">
+        <v>206</v>
+      </c>
+      <c r="W154">
+        <v>29</v>
+      </c>
+      <c r="X154">
+        <v>0.7262638717632552</v>
+      </c>
+      <c r="Y154">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25">
       <c r="A155" s="1">
         <v>6217</v>
       </c>
@@ -9569,8 +12368,26 @@
       <c r="S155">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:19">
+      <c r="T155">
+        <v>25973</v>
+      </c>
+      <c r="U155">
+        <v>0.03495938089554537</v>
+      </c>
+      <c r="V155">
+        <v>199</v>
+      </c>
+      <c r="W155">
+        <v>34</v>
+      </c>
+      <c r="X155">
+        <v>0.7698237885462555</v>
+      </c>
+      <c r="Y155">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25">
       <c r="A156" s="1">
         <v>6218</v>
       </c>
@@ -9628,8 +12445,26 @@
       <c r="S156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="1:19">
+      <c r="T156">
+        <v>31676</v>
+      </c>
+      <c r="U156">
+        <v>0.04463947468114661</v>
+      </c>
+      <c r="V156">
+        <v>166</v>
+      </c>
+      <c r="W156">
+        <v>43</v>
+      </c>
+      <c r="X156">
+        <v>0.7864214992927864</v>
+      </c>
+      <c r="Y156">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25">
       <c r="A157" s="1">
         <v>6219</v>
       </c>
@@ -9687,8 +12522,26 @@
       <c r="S157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:19">
+      <c r="T157">
+        <v>43153</v>
+      </c>
+      <c r="U157">
+        <v>0.05188515282830858</v>
+      </c>
+      <c r="V157">
+        <v>132</v>
+      </c>
+      <c r="W157">
+        <v>59</v>
+      </c>
+      <c r="X157">
+        <v>0.780259044216168</v>
+      </c>
+      <c r="Y157">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25">
       <c r="A158" s="1">
         <v>6220</v>
       </c>
@@ -9746,8 +12599,26 @@
       <c r="S158">
         <v>44</v>
       </c>
-    </row>
-    <row r="159" spans="1:19">
+      <c r="T158">
+        <v>76287</v>
+      </c>
+      <c r="U158">
+        <v>0.07530771953281687</v>
+      </c>
+      <c r="V158">
+        <v>57</v>
+      </c>
+      <c r="W158">
+        <v>107</v>
+      </c>
+      <c r="X158">
+        <v>0.786248912097476</v>
+      </c>
+      <c r="Y158">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25">
       <c r="A159" s="1">
         <v>6221</v>
       </c>
@@ -9805,8 +12676,26 @@
       <c r="S159">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="1:19">
+      <c r="T159">
+        <v>27228</v>
+      </c>
+      <c r="U159">
+        <v>0.03878360511238431</v>
+      </c>
+      <c r="V159">
+        <v>188</v>
+      </c>
+      <c r="W159">
+        <v>22</v>
+      </c>
+      <c r="X159">
+        <v>0.7831439393939394</v>
+      </c>
+      <c r="Y159">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25">
       <c r="A160" s="1">
         <v>7101</v>
       </c>
@@ -9864,8 +12753,26 @@
       <c r="S160">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:19">
+      <c r="T160">
+        <v>28389</v>
+      </c>
+      <c r="U160">
+        <v>0.04558103490788686</v>
+      </c>
+      <c r="V160">
+        <v>161</v>
+      </c>
+      <c r="W160">
+        <v>112</v>
+      </c>
+      <c r="X160">
+        <v>0.8068006182380216</v>
+      </c>
+      <c r="Y160">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25">
       <c r="A161" s="1">
         <v>7102</v>
       </c>
@@ -9923,8 +12830,26 @@
       <c r="S161">
         <v>6</v>
       </c>
-    </row>
-    <row r="162" spans="1:19">
+      <c r="T161">
+        <v>31572</v>
+      </c>
+      <c r="U161">
+        <v>0.0970796908653237</v>
+      </c>
+      <c r="V161">
+        <v>39</v>
+      </c>
+      <c r="W161">
+        <v>175</v>
+      </c>
+      <c r="X161">
+        <v>0.7849918433931484</v>
+      </c>
+      <c r="Y161">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25">
       <c r="A162" s="1">
         <v>7103</v>
       </c>
@@ -9982,8 +12907,26 @@
       <c r="S162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:19">
+      <c r="T162">
+        <v>10085</v>
+      </c>
+      <c r="U162">
+        <v>0.05027268220128904</v>
+      </c>
+      <c r="V162">
+        <v>142</v>
+      </c>
+      <c r="W162">
+        <v>176</v>
+      </c>
+      <c r="X162">
+        <v>0.7712031558185405</v>
+      </c>
+      <c r="Y162">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25">
       <c r="A163" s="1">
         <v>7104</v>
       </c>
@@ -10041,8 +12984,26 @@
       <c r="S163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:19">
+      <c r="T163">
+        <v>12658</v>
+      </c>
+      <c r="U163">
+        <v>0.07204929688734397</v>
+      </c>
+      <c r="V163">
+        <v>65</v>
+      </c>
+      <c r="W163">
+        <v>40</v>
+      </c>
+      <c r="X163">
+        <v>0.7554824561403509</v>
+      </c>
+      <c r="Y163">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25">
       <c r="A164" s="1">
         <v>7105</v>
       </c>
@@ -10100,8 +13061,26 @@
       <c r="S164">
         <v>6</v>
       </c>
-    </row>
-    <row r="165" spans="1:19">
+      <c r="T164">
+        <v>19709</v>
+      </c>
+      <c r="U164">
+        <v>0.04723730275508651</v>
+      </c>
+      <c r="V164">
+        <v>155</v>
+      </c>
+      <c r="W164">
+        <v>83</v>
+      </c>
+      <c r="X164">
+        <v>0.7765843179377014</v>
+      </c>
+      <c r="Y164">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25">
       <c r="A165" s="1">
         <v>7106</v>
       </c>
@@ -10159,8 +13138,26 @@
       <c r="S165">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:19">
+      <c r="T165">
+        <v>15361</v>
+      </c>
+      <c r="U165">
+        <v>0.04589544951500554</v>
+      </c>
+      <c r="V165">
+        <v>160</v>
+      </c>
+      <c r="W165">
+        <v>147</v>
+      </c>
+      <c r="X165">
+        <v>0.7262411347517731</v>
+      </c>
+      <c r="Y165">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25">
       <c r="A166" s="1">
         <v>7107</v>
       </c>
@@ -10218,8 +13215,26 @@
       <c r="S166">
         <v>40</v>
       </c>
-    </row>
-    <row r="167" spans="1:19">
+      <c r="T166">
+        <v>136530</v>
+      </c>
+      <c r="U166">
+        <v>0.06344393173661467</v>
+      </c>
+      <c r="V166">
+        <v>96</v>
+      </c>
+      <c r="W166">
+        <v>70</v>
+      </c>
+      <c r="X166">
+        <v>0.7724543985222813</v>
+      </c>
+      <c r="Y166">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25">
       <c r="A167" s="1">
         <v>7108</v>
       </c>
@@ -10277,8 +13292,26 @@
       <c r="S167">
         <v>16</v>
       </c>
-    </row>
-    <row r="168" spans="1:19">
+      <c r="T167">
+        <v>80421</v>
+      </c>
+      <c r="U167">
+        <v>0.06499546138446426</v>
+      </c>
+      <c r="V167">
+        <v>89</v>
+      </c>
+      <c r="W167">
+        <v>135</v>
+      </c>
+      <c r="X167">
+        <v>0.7792232638224603</v>
+      </c>
+      <c r="Y167">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25">
       <c r="A168" s="1">
         <v>7109</v>
       </c>
@@ -10336,8 +13369,26 @@
       <c r="S168">
         <v>11</v>
       </c>
-    </row>
-    <row r="169" spans="1:19">
+      <c r="T168">
+        <v>66604</v>
+      </c>
+      <c r="U168">
+        <v>0.07344904209957361</v>
+      </c>
+      <c r="V168">
+        <v>61</v>
+      </c>
+      <c r="W168">
+        <v>178</v>
+      </c>
+      <c r="X168">
+        <v>0.7845461978740801</v>
+      </c>
+      <c r="Y168">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25">
       <c r="A169" s="1">
         <v>7110</v>
       </c>
@@ -10395,8 +13446,26 @@
       <c r="S169">
         <v>14</v>
       </c>
-    </row>
-    <row r="170" spans="1:19">
+      <c r="T169">
+        <v>19982</v>
+      </c>
+      <c r="U169">
+        <v>0.08092283054749275</v>
+      </c>
+      <c r="V169">
+        <v>49</v>
+      </c>
+      <c r="W169">
+        <v>132</v>
+      </c>
+      <c r="X169">
+        <v>0.79282622139765</v>
+      </c>
+      <c r="Y169">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25">
       <c r="A170" s="1">
         <v>7111</v>
       </c>
@@ -10454,8 +13523,26 @@
       <c r="S170">
         <v>13</v>
       </c>
-    </row>
-    <row r="171" spans="1:19">
+      <c r="T170">
+        <v>57216</v>
+      </c>
+      <c r="U170">
+        <v>0.07464695190156599</v>
+      </c>
+      <c r="V170">
+        <v>60</v>
+      </c>
+      <c r="W170">
+        <v>127</v>
+      </c>
+      <c r="X170">
+        <v>0.7447904472020604</v>
+      </c>
+      <c r="Y170">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25">
       <c r="A171" s="1">
         <v>7112</v>
       </c>
@@ -10513,8 +13600,26 @@
       <c r="S171">
         <v>6</v>
       </c>
-    </row>
-    <row r="172" spans="1:19">
+      <c r="T171">
+        <v>18697</v>
+      </c>
+      <c r="U171">
+        <v>0.06530459431994437</v>
+      </c>
+      <c r="V171">
+        <v>87</v>
+      </c>
+      <c r="W171">
+        <v>44</v>
+      </c>
+      <c r="X171">
+        <v>0.7755937755937756</v>
+      </c>
+      <c r="Y171">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25">
       <c r="A172" s="1">
         <v>7113</v>
       </c>
@@ -10572,8 +13677,26 @@
       <c r="S172">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:19">
+      <c r="T172">
+        <v>27479</v>
+      </c>
+      <c r="U172">
+        <v>0.05163943374940864</v>
+      </c>
+      <c r="V172">
+        <v>135</v>
+      </c>
+      <c r="W172">
+        <v>99</v>
+      </c>
+      <c r="X172">
+        <v>0.7758985200845666</v>
+      </c>
+      <c r="Y172">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25">
       <c r="A173" s="1">
         <v>7201</v>
       </c>
@@ -10631,8 +13754,26 @@
       <c r="S173">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:19">
+      <c r="T173">
+        <v>12756</v>
+      </c>
+      <c r="U173">
+        <v>0.05142677955471935</v>
+      </c>
+      <c r="V173">
+        <v>136</v>
+      </c>
+      <c r="W173">
+        <v>100</v>
+      </c>
+      <c r="X173">
+        <v>0.7530487804878049</v>
+      </c>
+      <c r="Y173">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25">
       <c r="A174" s="1">
         <v>7202</v>
       </c>
@@ -10690,8 +13831,26 @@
       <c r="S174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:19">
+      <c r="T174">
+        <v>18081</v>
+      </c>
+      <c r="U174">
+        <v>0.04690006083734307</v>
+      </c>
+      <c r="V174">
+        <v>156</v>
+      </c>
+      <c r="W174">
+        <v>60</v>
+      </c>
+      <c r="X174">
+        <v>0.7488207547169812</v>
+      </c>
+      <c r="Y174">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25">
       <c r="A175" s="1">
         <v>7203</v>
       </c>
@@ -10749,8 +13908,26 @@
       <c r="S175">
         <v>11</v>
       </c>
-    </row>
-    <row r="176" spans="1:19">
+      <c r="T175">
+        <v>56830</v>
+      </c>
+      <c r="U175">
+        <v>0.06415625549885624</v>
+      </c>
+      <c r="V175">
+        <v>93</v>
+      </c>
+      <c r="W175">
+        <v>93</v>
+      </c>
+      <c r="X175">
+        <v>0.7674163466812945</v>
+      </c>
+      <c r="Y175">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25">
       <c r="A176" s="1">
         <v>7204</v>
       </c>
@@ -10808,8 +13985,26 @@
       <c r="S176">
         <v>6</v>
       </c>
-    </row>
-    <row r="177" spans="1:19">
+      <c r="T176">
+        <v>15582</v>
+      </c>
+      <c r="U176">
+        <v>0.02964959568733154</v>
+      </c>
+      <c r="V176">
+        <v>205</v>
+      </c>
+      <c r="W176">
+        <v>39</v>
+      </c>
+      <c r="X176">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="Y176">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25">
       <c r="A177" s="1">
         <v>7205</v>
       </c>
@@ -10867,8 +14062,26 @@
       <c r="S177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:19">
+      <c r="T177">
+        <v>28758</v>
+      </c>
+      <c r="U177">
+        <v>0.05455873148341331</v>
+      </c>
+      <c r="V177">
+        <v>119</v>
+      </c>
+      <c r="W177">
+        <v>55</v>
+      </c>
+      <c r="X177">
+        <v>0.7603569152326323</v>
+      </c>
+      <c r="Y177">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25">
       <c r="A178" s="1">
         <v>7206</v>
       </c>
@@ -10926,8 +14139,26 @@
       <c r="S178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:19">
+      <c r="T178">
+        <v>29243</v>
+      </c>
+      <c r="U178">
+        <v>0.03624799097219848</v>
+      </c>
+      <c r="V178">
+        <v>196</v>
+      </c>
+      <c r="W178">
+        <v>56</v>
+      </c>
+      <c r="X178">
+        <v>0.7349056603773585</v>
+      </c>
+      <c r="Y178">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25">
       <c r="A179" s="1">
         <v>7207</v>
       </c>
@@ -10985,8 +14216,26 @@
       <c r="S179">
         <v>15</v>
       </c>
-    </row>
-    <row r="180" spans="1:19">
+      <c r="T179">
+        <v>75098</v>
+      </c>
+      <c r="U179">
+        <v>0.03902900210391755</v>
+      </c>
+      <c r="V179">
+        <v>187</v>
+      </c>
+      <c r="W179">
+        <v>25</v>
+      </c>
+      <c r="X179">
+        <v>0.7652678266803139</v>
+      </c>
+      <c r="Y179">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25">
       <c r="A180" s="1">
         <v>7208</v>
       </c>
@@ -11044,8 +14293,26 @@
       <c r="S180">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="1:19">
+      <c r="T180">
+        <v>43531</v>
+      </c>
+      <c r="U180">
+        <v>0.04010934736165032</v>
+      </c>
+      <c r="V180">
+        <v>182</v>
+      </c>
+      <c r="W180">
+        <v>76</v>
+      </c>
+      <c r="X180">
+        <v>0.7812142038946163</v>
+      </c>
+      <c r="Y180">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25">
       <c r="A181" s="1">
         <v>7209</v>
       </c>
@@ -11103,8 +14370,26 @@
       <c r="S181">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:19">
+      <c r="T181">
+        <v>19100</v>
+      </c>
+      <c r="U181">
+        <v>0.03282722513089005</v>
+      </c>
+      <c r="V181">
+        <v>203</v>
+      </c>
+      <c r="W181">
+        <v>1</v>
+      </c>
+      <c r="X181">
+        <v>0.7687400318979266</v>
+      </c>
+      <c r="Y181">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25">
       <c r="A182" s="1">
         <v>7210</v>
       </c>
@@ -11162,8 +14447,26 @@
       <c r="S182">
         <v>5</v>
       </c>
-    </row>
-    <row r="183" spans="1:19">
+      <c r="T182">
+        <v>34708</v>
+      </c>
+      <c r="U182">
+        <v>0.05062233490837847</v>
+      </c>
+      <c r="V182">
+        <v>141</v>
+      </c>
+      <c r="W182">
+        <v>38</v>
+      </c>
+      <c r="X182">
+        <v>0.7512805919180421</v>
+      </c>
+      <c r="Y182">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25">
       <c r="A183" s="1">
         <v>7211</v>
       </c>
@@ -11221,8 +14524,26 @@
       <c r="S183">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:19">
+      <c r="T183">
+        <v>14230</v>
+      </c>
+      <c r="U183">
+        <v>0.03492621222768798</v>
+      </c>
+      <c r="V183">
+        <v>200</v>
+      </c>
+      <c r="W183">
+        <v>6</v>
+      </c>
+      <c r="X183">
+        <v>0.7303822937625755</v>
+      </c>
+      <c r="Y183">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25">
       <c r="A184" s="1">
         <v>7212</v>
       </c>
@@ -11280,8 +14601,26 @@
       <c r="S184">
         <v>4</v>
       </c>
-    </row>
-    <row r="185" spans="1:19">
+      <c r="T184">
+        <v>54329</v>
+      </c>
+      <c r="U184">
+        <v>0.04421211507666255</v>
+      </c>
+      <c r="V184">
+        <v>170</v>
+      </c>
+      <c r="W184">
+        <v>161</v>
+      </c>
+      <c r="X184">
+        <v>0.7622814321398834</v>
+      </c>
+      <c r="Y184">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25">
       <c r="A185" s="1">
         <v>7213</v>
       </c>
@@ -11339,8 +14678,26 @@
       <c r="S185">
         <v>25</v>
       </c>
-    </row>
-    <row r="186" spans="1:19">
+      <c r="T185">
+        <v>82347</v>
+      </c>
+      <c r="U185">
+        <v>0.04629191105929785</v>
+      </c>
+      <c r="V185">
+        <v>159</v>
+      </c>
+      <c r="W185">
+        <v>9</v>
+      </c>
+      <c r="X185">
+        <v>0.7678384050367262</v>
+      </c>
+      <c r="Y185">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25">
       <c r="A186" s="1">
         <v>8101</v>
       </c>
@@ -11398,8 +14755,26 @@
       <c r="S186">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:19">
+      <c r="T186">
+        <v>21359</v>
+      </c>
+      <c r="U186">
+        <v>0.06460976637483028</v>
+      </c>
+      <c r="V186">
+        <v>92</v>
+      </c>
+      <c r="W186">
+        <v>142</v>
+      </c>
+      <c r="X186">
+        <v>0.7724637681159421</v>
+      </c>
+      <c r="Y186">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25">
       <c r="A187" s="1">
         <v>8102</v>
       </c>
@@ -11457,8 +14832,26 @@
       <c r="S187">
         <v>6</v>
       </c>
-    </row>
-    <row r="188" spans="1:19">
+      <c r="T187">
+        <v>28312</v>
+      </c>
+      <c r="U187">
+        <v>0.08664170669680701</v>
+      </c>
+      <c r="V187">
+        <v>44</v>
+      </c>
+      <c r="W187">
+        <v>182</v>
+      </c>
+      <c r="X187">
+        <v>0.8018752547900529</v>
+      </c>
+      <c r="Y187">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25">
       <c r="A188" s="1">
         <v>8103</v>
       </c>
@@ -11516,8 +14909,26 @@
       <c r="S188">
         <v>12</v>
       </c>
-    </row>
-    <row r="189" spans="1:19">
+      <c r="T188">
+        <v>30309</v>
+      </c>
+      <c r="U188">
+        <v>0.1182157115048336</v>
+      </c>
+      <c r="V188">
+        <v>23</v>
+      </c>
+      <c r="W188">
+        <v>154</v>
+      </c>
+      <c r="X188">
+        <v>0.8037957019257606</v>
+      </c>
+      <c r="Y188">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25">
       <c r="A189" s="1">
         <v>8104</v>
       </c>
@@ -11575,8 +14986,26 @@
       <c r="S189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:19">
+      <c r="T189">
+        <v>21130</v>
+      </c>
+      <c r="U189">
+        <v>0.08007572172266919</v>
+      </c>
+      <c r="V189">
+        <v>50</v>
+      </c>
+      <c r="W189">
+        <v>190</v>
+      </c>
+      <c r="X189">
+        <v>0.7742316784869976</v>
+      </c>
+      <c r="Y189">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25">
       <c r="A190" s="1">
         <v>8105</v>
       </c>
@@ -11634,8 +15063,26 @@
       <c r="S190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:19">
+      <c r="T190">
+        <v>16158</v>
+      </c>
+      <c r="U190">
+        <v>0.04951107810372571</v>
+      </c>
+      <c r="V190">
+        <v>151</v>
+      </c>
+      <c r="W190">
+        <v>114</v>
+      </c>
+      <c r="X190">
+        <v>0.75875</v>
+      </c>
+      <c r="Y190">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25">
       <c r="A191" s="1">
         <v>8106</v>
       </c>
@@ -11693,8 +15140,26 @@
       <c r="S191">
         <v>13</v>
       </c>
-    </row>
-    <row r="192" spans="1:19">
+      <c r="T191">
+        <v>93336</v>
+      </c>
+      <c r="U191">
+        <v>0.06251607096940087</v>
+      </c>
+      <c r="V191">
+        <v>99</v>
+      </c>
+      <c r="W191">
+        <v>82</v>
+      </c>
+      <c r="X191">
+        <v>0.7856041131105398</v>
+      </c>
+      <c r="Y191">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25">
       <c r="A192" s="1">
         <v>8107</v>
       </c>
@@ -11752,8 +15217,26 @@
       <c r="S192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:19">
+      <c r="T192">
+        <v>20818</v>
+      </c>
+      <c r="U192">
+        <v>0.03645883370160438</v>
+      </c>
+      <c r="V192">
+        <v>195</v>
+      </c>
+      <c r="W192">
+        <v>2</v>
+      </c>
+      <c r="X192">
+        <v>0.7364953886693018</v>
+      </c>
+      <c r="Y192">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25">
       <c r="A193" s="1">
         <v>8108</v>
       </c>
@@ -11811,8 +15294,26 @@
       <c r="S193">
         <v>22</v>
       </c>
-    </row>
-    <row r="194" spans="1:19">
+      <c r="T193">
+        <v>72501</v>
+      </c>
+      <c r="U193">
+        <v>0.1204810968124578</v>
+      </c>
+      <c r="V193">
+        <v>19</v>
+      </c>
+      <c r="W193">
+        <v>185</v>
+      </c>
+      <c r="X193">
+        <v>0.8117916428162565</v>
+      </c>
+      <c r="Y193">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25">
       <c r="A194" s="1">
         <v>8109</v>
       </c>
@@ -11870,8 +15371,26 @@
       <c r="S194">
         <v>7</v>
       </c>
-    </row>
-    <row r="195" spans="1:19">
+      <c r="T194">
+        <v>33791</v>
+      </c>
+      <c r="U194">
+        <v>0.04294042792459531</v>
+      </c>
+      <c r="V194">
+        <v>173</v>
+      </c>
+      <c r="W194">
+        <v>129</v>
+      </c>
+      <c r="X194">
+        <v>0.7691247415575465</v>
+      </c>
+      <c r="Y194">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25">
       <c r="A195" s="1">
         <v>8110</v>
       </c>
@@ -11929,8 +15448,26 @@
       <c r="S195">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:19">
+      <c r="T195">
+        <v>18528</v>
+      </c>
+      <c r="U195">
+        <v>0.04819732297063904</v>
+      </c>
+      <c r="V195">
+        <v>154</v>
+      </c>
+      <c r="W195">
+        <v>123</v>
+      </c>
+      <c r="X195">
+        <v>0.6550951847704367</v>
+      </c>
+      <c r="Y195">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25">
       <c r="A196" s="1">
         <v>8111</v>
       </c>
@@ -11988,8 +15525,26 @@
       <c r="S196">
         <v>9</v>
       </c>
-    </row>
-    <row r="197" spans="1:19">
+      <c r="T196">
+        <v>52452</v>
+      </c>
+      <c r="U196">
+        <v>0.1360863265461756</v>
+      </c>
+      <c r="V196">
+        <v>12</v>
+      </c>
+      <c r="W196">
+        <v>205</v>
+      </c>
+      <c r="X196">
+        <v>0.8066685346035304</v>
+      </c>
+      <c r="Y196">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25">
       <c r="A197" s="1">
         <v>8112</v>
       </c>
@@ -12047,8 +15602,26 @@
       <c r="S197">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:19">
+      <c r="T197">
+        <v>33761</v>
+      </c>
+      <c r="U197">
+        <v>0.07322057995912443</v>
+      </c>
+      <c r="V197">
+        <v>62</v>
+      </c>
+      <c r="W197">
+        <v>151</v>
+      </c>
+      <c r="X197">
+        <v>0.7694174757281553</v>
+      </c>
+      <c r="Y197">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25">
       <c r="A198" s="1">
         <v>8113</v>
       </c>
@@ -12106,8 +15679,26 @@
       <c r="S198">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:19">
+      <c r="T198">
+        <v>17466</v>
+      </c>
+      <c r="U198">
+        <v>0.0332073743272644</v>
+      </c>
+      <c r="V198">
+        <v>202</v>
+      </c>
+      <c r="W198">
+        <v>165</v>
+      </c>
+      <c r="X198">
+        <v>0.7017241379310345</v>
+      </c>
+      <c r="Y198">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25">
       <c r="A199" s="1">
         <v>8114</v>
       </c>
@@ -12165,8 +15756,26 @@
       <c r="S199">
         <v>6</v>
       </c>
-    </row>
-    <row r="200" spans="1:19">
+      <c r="T199">
+        <v>33465</v>
+      </c>
+      <c r="U199">
+        <v>0.1091887046167638</v>
+      </c>
+      <c r="V199">
+        <v>29</v>
+      </c>
+      <c r="W199">
+        <v>105</v>
+      </c>
+      <c r="X199">
+        <v>0.8087027914614121</v>
+      </c>
+      <c r="Y199">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25">
       <c r="A200" s="1">
         <v>8115</v>
       </c>
@@ -12224,8 +15833,26 @@
       <c r="S200">
         <v>6</v>
       </c>
-    </row>
-    <row r="201" spans="1:19">
+      <c r="T200">
+        <v>40144</v>
+      </c>
+      <c r="U200">
+        <v>0.06571343164607413</v>
+      </c>
+      <c r="V200">
+        <v>85</v>
+      </c>
+      <c r="W200">
+        <v>174</v>
+      </c>
+      <c r="X200">
+        <v>0.7471569370735406</v>
+      </c>
+      <c r="Y200">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25">
       <c r="A201" s="1">
         <v>8116</v>
       </c>
@@ -12283,8 +15910,26 @@
       <c r="S201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:19">
+      <c r="T201">
+        <v>14195</v>
+      </c>
+      <c r="U201">
+        <v>0.0761535752025361</v>
+      </c>
+      <c r="V201">
+        <v>56</v>
+      </c>
+      <c r="W201">
+        <v>201</v>
+      </c>
+      <c r="X201">
+        <v>0.7650323774283071</v>
+      </c>
+      <c r="Y201">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25">
       <c r="A202" s="1">
         <v>8117</v>
       </c>
@@ -12342,8 +15987,26 @@
       <c r="S202">
         <v>5</v>
       </c>
-    </row>
-    <row r="203" spans="1:19">
+      <c r="T202">
+        <v>83678</v>
+      </c>
+      <c r="U202">
+        <v>0.05288128301345634</v>
+      </c>
+      <c r="V202">
+        <v>126</v>
+      </c>
+      <c r="W202">
+        <v>117</v>
+      </c>
+      <c r="X202">
+        <v>0.7708474576271186</v>
+      </c>
+      <c r="Y202">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25">
       <c r="A203" s="1">
         <v>8118</v>
       </c>
@@ -12401,8 +16064,26 @@
       <c r="S203">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="1:19">
+      <c r="T203">
+        <v>31218</v>
+      </c>
+      <c r="U203">
+        <v>0.1231661221090397</v>
+      </c>
+      <c r="V203">
+        <v>17</v>
+      </c>
+      <c r="W203">
+        <v>203</v>
+      </c>
+      <c r="X203">
+        <v>0.8239271781534461</v>
+      </c>
+      <c r="Y203">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25">
       <c r="A204" s="1">
         <v>8119</v>
       </c>
@@ -12460,8 +16141,26 @@
       <c r="S204">
         <v>71</v>
       </c>
-    </row>
-    <row r="205" spans="1:19">
+      <c r="T204">
+        <v>265457</v>
+      </c>
+      <c r="U204">
+        <v>0.1195033470580923</v>
+      </c>
+      <c r="V204">
+        <v>21</v>
+      </c>
+      <c r="W204">
+        <v>186</v>
+      </c>
+      <c r="X204">
+        <v>0.8326450840084482</v>
+      </c>
+      <c r="Y204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25">
       <c r="A205" s="1">
         <v>8120</v>
       </c>
@@ -12519,8 +16218,26 @@
       <c r="S205">
         <v>7</v>
       </c>
-    </row>
-    <row r="206" spans="1:19">
+      <c r="T205">
+        <v>12836</v>
+      </c>
+      <c r="U205">
+        <v>0.1116391399189779</v>
+      </c>
+      <c r="V205">
+        <v>26</v>
+      </c>
+      <c r="W205">
+        <v>109</v>
+      </c>
+      <c r="X205">
+        <v>0.7990230286113049</v>
+      </c>
+      <c r="Y205">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25">
       <c r="A206" s="1">
         <v>8121</v>
       </c>
@@ -12578,8 +16295,26 @@
       <c r="S206">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:19">
+      <c r="T206">
+        <v>45371</v>
+      </c>
+      <c r="U206">
+        <v>0.05241233386965242</v>
+      </c>
+      <c r="V206">
+        <v>128</v>
+      </c>
+      <c r="W206">
+        <v>155</v>
+      </c>
+      <c r="X206">
+        <v>0.7703952901597981</v>
+      </c>
+      <c r="Y206">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25">
       <c r="A207" s="1">
         <v>8122</v>
       </c>
@@ -12633,6 +16368,27 @@
       </c>
       <c r="R207">
         <v>151</v>
+      </c>
+      <c r="S207">
+        <v>0</v>
+      </c>
+      <c r="T207">
+        <v>11086</v>
+      </c>
+      <c r="U207">
+        <v>0.1028324012267725</v>
+      </c>
+      <c r="V207">
+        <v>34</v>
+      </c>
+      <c r="W207">
+        <v>177</v>
+      </c>
+      <c r="X207">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="Y207">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
